--- a/data/hivdata_survey_datasets.xlsx
+++ b/data/hivdata_survey_datasets.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11335" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11365" uniqueCount="776">
   <si>
     <t>Tables reflect analysis ready datasets. Non-analytical values (don't know, missing) are recoded as NA.</t>
   </si>
@@ -1767,6 +1767,12 @@
   </si>
   <si>
     <t>mics_area_level</t>
+  </si>
+  <si>
+    <t>mdob</t>
+  </si>
+  <si>
+    <t>Date of inverview men (CMC)</t>
   </si>
   <si>
     <t>val_raw</t>
@@ -3574,10 +3580,10 @@
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -3585,24 +3591,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" ht="78.75" spans="1:4">
       <c r="A3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3610,10 +3616,10 @@
         <v>475</v>
       </c>
       <c r="B4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3621,10 +3627,10 @@
         <v>475</v>
       </c>
       <c r="B5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C5" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3632,10 +3638,10 @@
         <v>475</v>
       </c>
       <c r="B6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C6" t="s">
         <v>741</v>
-      </c>
-      <c r="C6" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3643,10 +3649,10 @@
         <v>475</v>
       </c>
       <c r="B7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3654,10 +3660,10 @@
         <v>475</v>
       </c>
       <c r="B8" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3665,13 +3671,13 @@
         <v>526</v>
       </c>
       <c r="B9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C9" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D9" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3679,13 +3685,13 @@
         <v>526</v>
       </c>
       <c r="B10" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C10" t="s">
+        <v>751</v>
+      </c>
+      <c r="D10" t="s">
         <v>749</v>
-      </c>
-      <c r="D10" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3693,10 +3699,10 @@
         <v>526</v>
       </c>
       <c r="B11" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C11" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3704,10 +3710,10 @@
         <v>526</v>
       </c>
       <c r="B12" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3715,13 +3721,13 @@
         <v>526</v>
       </c>
       <c r="B13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C13" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D13" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3729,13 +3735,13 @@
         <v>526</v>
       </c>
       <c r="B14" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C14" t="s">
+        <v>760</v>
+      </c>
+      <c r="D14" t="s">
         <v>758</v>
-      </c>
-      <c r="D14" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3743,10 +3749,10 @@
         <v>526</v>
       </c>
       <c r="B15" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C15" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3754,10 +3760,10 @@
         <v>526</v>
       </c>
       <c r="B16" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C16" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3765,10 +3771,10 @@
         <v>526</v>
       </c>
       <c r="B17" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C17" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3776,10 +3782,10 @@
         <v>527</v>
       </c>
       <c r="B18" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C18" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3787,10 +3793,10 @@
         <v>406</v>
       </c>
       <c r="B19" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C19" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3798,10 +3804,10 @@
         <v>406</v>
       </c>
       <c r="B20" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C20" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3809,10 +3815,10 @@
         <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C21" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3820,7 +3826,7 @@
         <v>406</v>
       </c>
       <c r="C22" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -5293,12 +5299,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1031"/>
+  <dimension ref="A1:F1037"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1020" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomLeft" activeCell="C1040" sqref="C1040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -25639,6 +25645,106 @@
         <v>513</v>
       </c>
       <c r="F1031" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1033" s="7" customFormat="1" spans="1:6">
+      <c r="A1033" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1033" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1033" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1033" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1033" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1033" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1034" s="7" customFormat="1" spans="1:6">
+      <c r="A1034" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1034" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1034" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1034" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E1034" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1034" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1035" s="7" customFormat="1" spans="1:6">
+      <c r="A1035" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1035" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1035" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1035" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1035" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1035" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1036" s="7" customFormat="1" spans="1:6">
+      <c r="A1036" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1036" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1036" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1036" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1036" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F1036" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1037" s="7" customFormat="1" spans="1:6">
+      <c r="A1037" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1037" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1037" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1037" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1037" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1037" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -25680,10 +25786,10 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F1" t="s">
         <v>131</v>
@@ -25712,7 +25818,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -25738,7 +25844,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -25764,10 +25870,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H4" t="s">
         <v>157</v>
@@ -25790,10 +25896,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H5" t="s">
         <v>157</v>
@@ -25816,10 +25922,10 @@
         <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F6" t="s">
         <v>568</v>
-      </c>
-      <c r="F6" t="s">
-        <v>566</v>
       </c>
       <c r="H6" t="s">
         <v>159</v>
@@ -25842,10 +25948,10 @@
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H7" t="s">
         <v>159</v>
@@ -25868,10 +25974,10 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F8" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H8" t="s">
         <v>159</v>
@@ -25894,10 +26000,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H9" t="s">
         <v>160</v>
@@ -25920,7 +26026,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F10" t="s">
         <v>133</v>
@@ -25946,10 +26052,10 @@
         <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F11" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H11" t="s">
         <v>160</v>
@@ -25972,10 +26078,10 @@
         <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H12" t="s">
         <v>160</v>
@@ -25998,10 +26104,10 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F13" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H13" t="s">
         <v>160</v>
@@ -26024,10 +26130,10 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H14" t="s">
         <v>160</v>
@@ -26050,10 +26156,10 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F15" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H15" t="s">
         <v>160</v>
@@ -26076,10 +26182,10 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F16" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H16" t="s">
         <v>160</v>
@@ -26102,7 +26208,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F17" t="s">
         <v>133</v>
@@ -26128,7 +26234,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F18" t="s">
         <v>133</v>
@@ -26154,7 +26260,7 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F19" t="s">
         <v>133</v>
@@ -26180,7 +26286,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F20" t="s">
         <v>133</v>
@@ -26206,13 +26312,13 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F21" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G21" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H21" t="s">
         <v>162</v>
@@ -26235,10 +26341,10 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F22" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H22" t="s">
         <v>162</v>
@@ -26261,10 +26367,10 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F23" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H23" t="s">
         <v>162</v>
@@ -26287,10 +26393,10 @@
         <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F24" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H24" t="s">
         <v>162</v>
@@ -26313,10 +26419,10 @@
         <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F25" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H25" t="s">
         <v>162</v>
@@ -26339,10 +26445,10 @@
         <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F26" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H26" t="s">
         <v>162</v>
@@ -26365,7 +26471,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -26391,7 +26497,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -26417,10 +26523,10 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F29" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H29" t="s">
         <v>166</v>
@@ -26443,10 +26549,10 @@
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F30" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H30" t="s">
         <v>418</v>
@@ -26469,10 +26575,10 @@
         <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F31" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H31" t="s">
         <v>418</v>
@@ -26495,10 +26601,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F32" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H32" t="s">
         <v>170</v>
@@ -26521,7 +26627,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F33" t="s">
         <v>133</v>
@@ -26547,10 +26653,10 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F34" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H34" t="s">
         <v>170</v>
@@ -26573,10 +26679,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F35" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H35" t="s">
         <v>170</v>
@@ -26599,10 +26705,10 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F36" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H36" t="s">
         <v>170</v>
@@ -26625,7 +26731,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F37" t="s">
         <v>133</v>
@@ -26651,13 +26757,13 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F38" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G38" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H38" t="s">
         <v>168</v>
@@ -26680,10 +26786,10 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F39" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H39" t="s">
         <v>168</v>
@@ -26706,10 +26812,10 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F40" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H40" t="s">
         <v>168</v>
@@ -26732,10 +26838,10 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F41" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H41" t="s">
         <v>168</v>
@@ -26758,10 +26864,10 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F42" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H42" t="s">
         <v>168</v>
@@ -26784,10 +26890,10 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F43" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H43" t="s">
         <v>168</v>
@@ -26810,7 +26916,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -26836,7 +26942,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -26859,13 +26965,13 @@
         <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E46" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F46" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H46" t="s">
         <v>174</v>
@@ -26885,13 +26991,13 @@
         <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E47" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F47" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H47" t="s">
         <v>174</v>
@@ -26911,13 +27017,13 @@
         <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E48" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F48" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H48" t="s">
         <v>176</v>
@@ -26940,7 +27046,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F49" t="s">
         <v>133</v>
@@ -26966,10 +27072,10 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F50" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H50" t="s">
         <v>178</v>
@@ -26992,13 +27098,13 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F51" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G51" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H51" t="s">
         <v>178</v>
@@ -27021,10 +27127,10 @@
         <v>96</v>
       </c>
       <c r="E52" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F52" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H52" t="s">
         <v>178</v>
@@ -27047,10 +27153,10 @@
         <v>-8</v>
       </c>
       <c r="E53" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F53" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H53" t="s">
         <v>178</v>
@@ -27073,10 +27179,10 @@
         <v>-9</v>
       </c>
       <c r="E54" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F54" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H54" t="s">
         <v>178</v>
@@ -27099,7 +27205,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -27125,7 +27231,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -27151,10 +27257,10 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F57" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H57" t="s">
         <v>195</v>
@@ -27177,10 +27283,10 @@
         <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H58" t="s">
         <v>195</v>
@@ -27203,7 +27309,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -27229,7 +27335,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -27255,10 +27361,10 @@
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F61" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H61" t="s">
         <v>197</v>
@@ -27281,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -27307,13 +27413,13 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I63" t="s">
         <v>158</v>
@@ -27333,13 +27439,13 @@
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F64" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H64" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="I64" t="s">
         <v>158</v>
@@ -27359,10 +27465,10 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F65" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H65" t="s">
         <v>202</v>
@@ -27385,10 +27491,10 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F66" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H66" t="s">
         <v>202</v>
@@ -27411,7 +27517,7 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F67" t="s">
         <v>133</v>
@@ -27437,10 +27543,10 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
+        <v>574</v>
+      </c>
+      <c r="F68" t="s">
         <v>572</v>
-      </c>
-      <c r="F68" t="s">
-        <v>570</v>
       </c>
       <c r="H68" t="s">
         <v>202</v>
@@ -27463,10 +27569,10 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F69" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H69" t="s">
         <v>202</v>
@@ -27489,10 +27595,10 @@
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F70" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H70" t="s">
         <v>202</v>
@@ -27515,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -27541,7 +27647,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -27567,10 +27673,10 @@
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F73" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H73" t="s">
         <v>204</v>
@@ -27593,7 +27699,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -27619,7 +27725,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -27645,10 +27751,10 @@
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F76" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H76" t="s">
         <v>206</v>
@@ -27671,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -27697,7 +27803,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -27723,10 +27829,10 @@
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F79" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H79" t="s">
         <v>209</v>
@@ -27749,7 +27855,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F80" t="s">
         <v>133</v>
@@ -27775,7 +27881,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F81" t="s">
         <v>133</v>
@@ -27801,10 +27907,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F82" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H82" t="s">
         <v>212</v>
@@ -27827,13 +27933,13 @@
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F83" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H83" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I83" t="s">
         <v>158</v>
@@ -27853,13 +27959,13 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F84" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H84" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I84" t="s">
         <v>158</v>
@@ -27879,13 +27985,13 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F85" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H85" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I85" t="s">
         <v>158</v>
@@ -27905,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -27931,7 +28037,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -27957,10 +28063,10 @@
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F88" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H88" t="s">
         <v>214</v>
@@ -27983,7 +28089,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -28009,7 +28115,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -28035,10 +28141,10 @@
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F91" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H91" t="s">
         <v>216</v>
@@ -28061,10 +28167,10 @@
         <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F92" t="s">
         <v>568</v>
-      </c>
-      <c r="F92" t="s">
-        <v>566</v>
       </c>
       <c r="H92" t="s">
         <v>218</v>
@@ -28087,10 +28193,10 @@
         <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F93" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H93" t="s">
         <v>218</v>
@@ -28113,7 +28219,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F94" t="s">
         <v>133</v>
@@ -28139,10 +28245,10 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H95" t="s">
         <v>219</v>
@@ -28165,10 +28271,10 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F96" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H96" t="s">
         <v>219</v>
@@ -28191,10 +28297,10 @@
         <v>4</v>
       </c>
       <c r="E97" t="s">
+        <v>574</v>
+      </c>
+      <c r="F97" t="s">
         <v>572</v>
-      </c>
-      <c r="F97" t="s">
-        <v>570</v>
       </c>
       <c r="H97" t="s">
         <v>219</v>
@@ -28217,10 +28323,10 @@
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F98" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H98" t="s">
         <v>219</v>
@@ -28243,7 +28349,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -28269,7 +28375,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -28295,10 +28401,10 @@
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F101" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H101" t="s">
         <v>227</v>
@@ -28321,7 +28427,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -28347,7 +28453,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -28373,10 +28479,10 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F104" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H104" t="s">
         <v>230</v>
@@ -28399,10 +28505,10 @@
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F105" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H105" t="s">
         <v>230</v>
@@ -28425,10 +28531,10 @@
         <v>97</v>
       </c>
       <c r="E106" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F106" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H106" t="s">
         <v>231</v>
@@ -28451,10 +28557,10 @@
         <v>98</v>
       </c>
       <c r="E107" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F107" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H107" t="s">
         <v>231</v>
@@ -28477,10 +28583,10 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F108" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H108" t="s">
         <v>233</v>
@@ -28503,7 +28609,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F109" t="s">
         <v>133</v>
@@ -28529,10 +28635,10 @@
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F110" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H110" t="s">
         <v>233</v>
@@ -28555,10 +28661,10 @@
         <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F111" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H111" t="s">
         <v>233</v>
@@ -28581,7 +28687,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -28607,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -28633,10 +28739,10 @@
         <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F114" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H114" t="s">
         <v>227</v>
@@ -28659,10 +28765,10 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F115" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H115" t="s">
         <v>223</v>
@@ -28685,10 +28791,10 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F116" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H116" t="s">
         <v>223</v>
@@ -28711,7 +28817,7 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F117" t="s">
         <v>133</v>
@@ -28737,10 +28843,10 @@
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F118" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H118" t="s">
         <v>223</v>
@@ -28763,10 +28869,10 @@
         <v>6</v>
       </c>
       <c r="E119" t="s">
+        <v>574</v>
+      </c>
+      <c r="F119" t="s">
         <v>572</v>
-      </c>
-      <c r="F119" t="s">
-        <v>570</v>
       </c>
       <c r="H119" t="s">
         <v>223</v>
@@ -28789,10 +28895,10 @@
         <v>8</v>
       </c>
       <c r="E120" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F120" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H120" t="s">
         <v>223</v>
@@ -28815,10 +28921,10 @@
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F121" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H121" t="s">
         <v>223</v>
@@ -28841,7 +28947,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F122" t="s">
         <v>133</v>
@@ -28867,13 +28973,13 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G123" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H123" t="s">
         <v>219</v>
@@ -28896,10 +29002,10 @@
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F124" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H124" t="s">
         <v>219</v>
@@ -28922,10 +29028,10 @@
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F125" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H125" t="s">
         <v>219</v>
@@ -28948,10 +29054,10 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F126" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H126" t="s">
         <v>219</v>
@@ -28974,10 +29080,10 @@
         <v>8</v>
       </c>
       <c r="E127" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F127" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H127" t="s">
         <v>219</v>
@@ -29000,10 +29106,10 @@
         <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F128" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H128" t="s">
         <v>219</v>
@@ -29026,10 +29132,10 @@
         <v>95</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F129" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H129" t="s">
         <v>218</v>
@@ -29052,10 +29158,10 @@
         <v>98</v>
       </c>
       <c r="E130" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F130" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H130" t="s">
         <v>218</v>
@@ -29078,10 +29184,10 @@
         <v>99</v>
       </c>
       <c r="E131" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F131" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H131" t="s">
         <v>218</v>
@@ -29104,10 +29210,10 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F132" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H132" t="s">
         <v>241</v>
@@ -29130,7 +29236,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F133" t="s">
         <v>133</v>
@@ -29156,10 +29262,10 @@
         <v>8</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>241</v>
@@ -29182,10 +29288,10 @@
         <v>9</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>241</v>
@@ -29208,10 +29314,10 @@
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>240</v>
@@ -29234,10 +29340,10 @@
         <v>2</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>240</v>
@@ -29260,10 +29366,10 @@
         <v>3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>240</v>
@@ -29286,10 +29392,10 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F139" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H139" t="s">
         <v>240</v>
@@ -29312,7 +29418,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -29338,7 +29444,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -29364,10 +29470,10 @@
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F142" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H142" t="s">
         <v>194</v>
@@ -29390,13 +29496,13 @@
         <v>95</v>
       </c>
       <c r="E143" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F143" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H143" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I143" t="s">
         <v>158</v>
@@ -29416,13 +29522,13 @@
         <v>98</v>
       </c>
       <c r="E144" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F144" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H144" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I144" t="s">
         <v>158</v>
@@ -29442,13 +29548,13 @@
         <v>99</v>
       </c>
       <c r="E145" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F145" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H145" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I145" t="s">
         <v>158</v>
@@ -29468,10 +29574,10 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F146" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H146" t="s">
         <v>195</v>
@@ -29494,10 +29600,10 @@
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F147" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H147" t="s">
         <v>195</v>
@@ -29520,10 +29626,10 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F148" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H148" t="s">
         <v>195</v>
@@ -29546,10 +29652,10 @@
         <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F149" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H149" t="s">
         <v>195</v>
@@ -29572,10 +29678,10 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F150" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H150" t="s">
         <v>202</v>
@@ -29598,7 +29704,7 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F151" t="s">
         <v>133</v>
@@ -29624,10 +29730,10 @@
         <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F152" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H152" t="s">
         <v>202</v>
@@ -29650,10 +29756,10 @@
         <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F153" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H153" t="s">
         <v>202</v>
@@ -29676,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -29702,7 +29808,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -29728,10 +29834,10 @@
         <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F156" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H156" t="s">
         <v>250</v>
@@ -29754,7 +29860,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -29780,7 +29886,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -29806,10 +29912,10 @@
         <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F159" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H159" t="s">
         <v>253</v>
@@ -29832,10 +29938,10 @@
         <v>8</v>
       </c>
       <c r="E160" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F160" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H160" t="s">
         <v>253</v>
@@ -29858,10 +29964,10 @@
         <v>95</v>
       </c>
       <c r="E161" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F161" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H161" t="s">
         <v>195</v>
@@ -29884,10 +29990,10 @@
         <v>96</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F162" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H162" t="s">
         <v>195</v>
@@ -29910,10 +30016,10 @@
         <v>98</v>
       </c>
       <c r="E163" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F163" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H163" t="s">
         <v>195</v>
@@ -29936,10 +30042,10 @@
         <v>99</v>
       </c>
       <c r="E164" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F164" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H164" t="s">
         <v>195</v>
@@ -29962,10 +30068,10 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F165" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H165" t="s">
         <v>202</v>
@@ -29988,7 +30094,7 @@
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F166" t="s">
         <v>133</v>
@@ -30014,10 +30120,10 @@
         <v>3</v>
       </c>
       <c r="E167" t="s">
+        <v>574</v>
+      </c>
+      <c r="F167" t="s">
         <v>572</v>
-      </c>
-      <c r="F167" t="s">
-        <v>570</v>
       </c>
       <c r="H167" t="s">
         <v>202</v>
@@ -30040,10 +30146,10 @@
         <v>8</v>
       </c>
       <c r="E168" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F168" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H168" t="s">
         <v>202</v>
@@ -30066,10 +30172,10 @@
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F169" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H169" t="s">
         <v>202</v>
@@ -30092,7 +30198,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F170" t="s">
         <v>133</v>
@@ -30118,10 +30224,10 @@
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H171" t="s">
         <v>257</v>
@@ -30144,10 +30250,10 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F172" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H172" t="s">
         <v>257</v>
@@ -30170,10 +30276,10 @@
         <v>4</v>
       </c>
       <c r="E173" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F173" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H173" t="s">
         <v>257</v>
@@ -30196,10 +30302,10 @@
         <v>8</v>
       </c>
       <c r="E174" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F174" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H174" t="s">
         <v>257</v>
@@ -30222,10 +30328,10 @@
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F175" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H175" t="s">
         <v>257</v>
@@ -30248,10 +30354,10 @@
         <v>95</v>
       </c>
       <c r="E176" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F176" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H176" t="s">
         <v>195</v>
@@ -30274,10 +30380,10 @@
         <v>98</v>
       </c>
       <c r="E177" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F177" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H177" t="s">
         <v>195</v>
@@ -30300,10 +30406,10 @@
         <v>99</v>
       </c>
       <c r="E178" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F178" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H178" t="s">
         <v>195</v>
@@ -30326,7 +30432,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F179" t="s">
         <v>133</v>
@@ -30352,10 +30458,10 @@
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H180" t="s">
         <v>257</v>
@@ -30378,10 +30484,10 @@
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F181" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H181" t="s">
         <v>257</v>
@@ -30404,10 +30510,10 @@
         <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F182" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H182" t="s">
         <v>257</v>
@@ -30430,10 +30536,10 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F183" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H183" t="s">
         <v>257</v>
@@ -30456,10 +30562,10 @@
         <v>6</v>
       </c>
       <c r="E184" t="s">
+        <v>574</v>
+      </c>
+      <c r="F184" t="s">
         <v>572</v>
-      </c>
-      <c r="F184" t="s">
-        <v>570</v>
       </c>
       <c r="H184" t="s">
         <v>257</v>
@@ -30482,10 +30588,10 @@
         <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F185" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H185" t="s">
         <v>257</v>
@@ -30508,10 +30614,10 @@
         <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F186" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H186" t="s">
         <v>257</v>
@@ -30534,7 +30640,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -30560,7 +30666,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -30586,10 +30692,10 @@
         <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F189" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H189" t="s">
         <v>262</v>
@@ -30612,7 +30718,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -30638,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -30664,7 +30770,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -30690,7 +30796,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -30716,10 +30822,10 @@
         <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F194" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H194" t="s">
         <v>273</v>
@@ -30742,7 +30848,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -30768,7 +30874,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -30794,10 +30900,10 @@
         <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F197" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H197" t="s">
         <v>275</v>
@@ -30820,7 +30926,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -30846,7 +30952,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -30872,7 +30978,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -30898,7 +31004,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -30924,10 +31030,10 @@
         <v>8</v>
       </c>
       <c r="E202" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F202" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H202" t="s">
         <v>281</v>
@@ -30950,7 +31056,7 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -30976,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -31002,10 +31108,10 @@
         <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F205" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H205" t="s">
         <v>281</v>
@@ -31028,7 +31134,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -31054,7 +31160,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -31080,10 +31186,10 @@
         <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F208" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H208" t="s">
         <v>281</v>
@@ -31106,7 +31212,7 @@
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -31132,7 +31238,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -31146,7 +31252,7 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B211" t="s">
         <v>187</v>
@@ -31158,13 +31264,13 @@
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I211" t="s">
         <v>158</v>
@@ -31172,7 +31278,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B212" t="s">
         <v>187</v>
@@ -31184,13 +31290,13 @@
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F212">
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I212" t="s">
         <v>158</v>
@@ -31210,10 +31316,10 @@
         <v>95</v>
       </c>
       <c r="E213" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F213" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H213" t="s">
         <v>263</v>
@@ -31236,10 +31342,10 @@
         <v>98</v>
       </c>
       <c r="E214" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F214" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H214" t="s">
         <v>263</v>
@@ -31262,10 +31368,10 @@
         <v>99</v>
       </c>
       <c r="E215" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F215" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H215" t="s">
         <v>263</v>
@@ -31288,10 +31394,10 @@
         <v>1</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F216" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>267</v>
@@ -31314,10 +31420,10 @@
         <v>2</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F217" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>267</v>
@@ -31340,10 +31446,10 @@
         <v>3</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F218" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>267</v>
@@ -31366,10 +31472,10 @@
         <v>8</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F219" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>267</v>
@@ -31392,10 +31498,10 @@
         <v>9</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F220" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H220" s="2" t="s">
         <v>267</v>
@@ -31418,7 +31524,7 @@
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -31444,10 +31550,10 @@
         <v>98</v>
       </c>
       <c r="E222" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F222" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H222" t="s">
         <v>271</v>
@@ -31470,7 +31576,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F223" t="s">
         <v>133</v>
@@ -31496,10 +31602,10 @@
         <v>2</v>
       </c>
       <c r="E224" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F224" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H224" t="s">
         <v>188</v>
@@ -31522,10 +31628,10 @@
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F225" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H225" t="s">
         <v>188</v>
@@ -31548,10 +31654,10 @@
         <v>6</v>
       </c>
       <c r="E226" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F226" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H226" t="s">
         <v>188</v>
@@ -31574,10 +31680,10 @@
         <v>8</v>
       </c>
       <c r="E227" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F227" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H227" t="s">
         <v>188</v>
@@ -31600,7 +31706,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F228" t="s">
         <v>133</v>
@@ -31626,10 +31732,10 @@
         <v>2</v>
       </c>
       <c r="E229" t="s">
+        <v>574</v>
+      </c>
+      <c r="F229" t="s">
         <v>572</v>
-      </c>
-      <c r="F229" t="s">
-        <v>570</v>
       </c>
       <c r="H229" t="s">
         <v>265</v>
@@ -31652,10 +31758,10 @@
         <v>8</v>
       </c>
       <c r="E230" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F230" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H230" t="s">
         <v>265</v>
@@ -31678,10 +31784,10 @@
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F231" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H231" t="s">
         <v>265</v>
@@ -31704,7 +31810,7 @@
         <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F232" t="s">
         <v>133</v>
@@ -31730,7 +31836,7 @@
         <v>11</v>
       </c>
       <c r="E233" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F233" t="s">
         <v>133</v>
@@ -31756,7 +31862,7 @@
         <v>12</v>
       </c>
       <c r="E234" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F234" t="s">
         <v>133</v>
@@ -31782,7 +31888,7 @@
         <v>16</v>
       </c>
       <c r="E235" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F235" t="s">
         <v>133</v>
@@ -31808,10 +31914,10 @@
         <v>20</v>
       </c>
       <c r="E236" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F236" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H236" t="s">
         <v>269</v>
@@ -31834,10 +31940,10 @@
         <v>21</v>
       </c>
       <c r="E237" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F237" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H237" t="s">
         <v>269</v>
@@ -31860,10 +31966,10 @@
         <v>22</v>
       </c>
       <c r="E238" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F238" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H238" t="s">
         <v>269</v>
@@ -31886,10 +31992,10 @@
         <v>26</v>
       </c>
       <c r="E239" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F239" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H239" t="s">
         <v>269</v>
@@ -31912,10 +32018,10 @@
         <v>98</v>
       </c>
       <c r="E240" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F240" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H240" t="s">
         <v>269</v>
@@ -31938,10 +32044,10 @@
         <v>99</v>
       </c>
       <c r="E241" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F241" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H241" t="s">
         <v>269</v>
@@ -31964,7 +32070,7 @@
         <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F242" t="s">
         <v>133</v>
@@ -31990,7 +32096,7 @@
         <v>11</v>
       </c>
       <c r="E243" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F243" t="s">
         <v>133</v>
@@ -32016,7 +32122,7 @@
         <v>12</v>
       </c>
       <c r="E244" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F244" t="s">
         <v>133</v>
@@ -32042,7 +32148,7 @@
         <v>16</v>
       </c>
       <c r="E245" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F245" t="s">
         <v>133</v>
@@ -32068,10 +32174,10 @@
         <v>20</v>
       </c>
       <c r="E246" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F246" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H246" t="s">
         <v>269</v>
@@ -32094,10 +32200,10 @@
         <v>21</v>
       </c>
       <c r="E247" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F247" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H247" t="s">
         <v>269</v>
@@ -32120,10 +32226,10 @@
         <v>22</v>
       </c>
       <c r="E248" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F248" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H248" t="s">
         <v>269</v>
@@ -32146,10 +32252,10 @@
         <v>26</v>
       </c>
       <c r="E249" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F249" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H249" t="s">
         <v>269</v>
@@ -32172,10 +32278,10 @@
         <v>98</v>
       </c>
       <c r="E250" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F250" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H250" t="s">
         <v>269</v>
@@ -32198,10 +32304,10 @@
         <v>99</v>
       </c>
       <c r="E251" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F251" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H251" t="s">
         <v>269</v>
@@ -32224,7 +32330,7 @@
         <v>0</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F252" s="3">
         <v>0</v>
@@ -32250,7 +32356,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F253" s="3">
         <v>1</v>
@@ -32276,7 +32382,7 @@
         <v>2</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F254" s="3">
         <v>2</v>
@@ -32302,10 +32408,10 @@
         <v>9</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H255" t="s">
         <v>302</v>
@@ -32328,7 +32434,7 @@
         <v>0</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F256" s="3">
         <v>0</v>
@@ -32354,7 +32460,7 @@
         <v>1</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F257" s="3">
         <v>1</v>
@@ -32380,7 +32486,7 @@
         <v>2</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F258" s="3">
         <v>2</v>
@@ -32406,10 +32512,10 @@
         <v>9</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H259" t="s">
         <v>302</v>
@@ -32432,7 +32538,7 @@
         <v>0</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F260" s="3">
         <v>0</v>
@@ -32458,7 +32564,7 @@
         <v>1</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F261" s="3">
         <v>1</v>
@@ -32484,7 +32590,7 @@
         <v>2</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F262" s="3">
         <v>2</v>
@@ -32510,10 +32616,10 @@
         <v>9</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H263" t="s">
         <v>302</v>
@@ -32536,7 +32642,7 @@
         <v>0</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F264" s="3">
         <v>0</v>
@@ -32562,7 +32668,7 @@
         <v>1</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F265" s="3">
         <v>1</v>
@@ -32588,7 +32694,7 @@
         <v>2</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F266" s="3">
         <v>2</v>
@@ -32614,7 +32720,7 @@
         <v>0</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F267" s="3">
         <v>0</v>
@@ -32640,7 +32746,7 @@
         <v>1</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F268" s="3">
         <v>1</v>
@@ -32666,7 +32772,7 @@
         <v>2</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F269" s="3">
         <v>2</v>
@@ -32692,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F270" s="3">
         <v>0</v>
@@ -32718,7 +32824,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F271" s="3">
         <v>1</v>
@@ -32744,7 +32850,7 @@
         <v>2</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F272" s="3">
         <v>2</v>
@@ -32770,7 +32876,7 @@
         <v>0</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F273" s="3">
         <v>0</v>
@@ -32796,7 +32902,7 @@
         <v>1</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F274" s="3">
         <v>1</v>
@@ -32822,7 +32928,7 @@
         <v>2</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F275" s="3">
         <v>2</v>
@@ -32848,7 +32954,7 @@
         <v>0</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F276" s="3">
         <v>0</v>
@@ -32874,7 +32980,7 @@
         <v>1</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F277" s="3">
         <v>1</v>
@@ -32900,7 +33006,7 @@
         <v>2</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F278" s="3">
         <v>2</v>
@@ -32926,10 +33032,10 @@
         <v>9</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H279" t="s">
         <v>302</v>
@@ -32952,7 +33058,7 @@
         <v>0</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F280" s="3">
         <v>0</v>
@@ -32978,7 +33084,7 @@
         <v>1</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F281" s="3">
         <v>1</v>
@@ -33004,7 +33110,7 @@
         <v>2</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F282" s="3">
         <v>2</v>
@@ -33030,7 +33136,7 @@
         <v>0</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F283" s="3">
         <v>0</v>
@@ -33056,7 +33162,7 @@
         <v>1</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F284" s="3">
         <v>1</v>
@@ -33082,7 +33188,7 @@
         <v>2</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F285" s="3">
         <v>2</v>
@@ -33108,10 +33214,10 @@
         <v>9</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H286" t="s">
         <v>302</v>
@@ -33134,7 +33240,7 @@
         <v>0</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F287" s="3">
         <v>0</v>
@@ -33160,7 +33266,7 @@
         <v>1</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F288" s="3">
         <v>1</v>
@@ -33186,7 +33292,7 @@
         <v>2</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F289" s="3">
         <v>2</v>
@@ -33212,10 +33318,10 @@
         <v>9</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H290" t="s">
         <v>302</v>
@@ -33238,7 +33344,7 @@
         <v>0</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F291" s="3">
         <v>0</v>
@@ -33264,7 +33370,7 @@
         <v>1</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F292" s="3">
         <v>1</v>
@@ -33290,7 +33396,7 @@
         <v>2</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F293" s="3">
         <v>2</v>
@@ -33316,7 +33422,7 @@
         <v>0</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F294" s="3">
         <v>0</v>
@@ -33342,7 +33448,7 @@
         <v>1</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F295" s="3">
         <v>1</v>
@@ -33368,7 +33474,7 @@
         <v>2</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F296" s="3">
         <v>2</v>
@@ -33394,10 +33500,10 @@
         <v>9</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H297" t="s">
         <v>302</v>
@@ -33420,7 +33526,7 @@
         <v>0</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F298" s="3">
         <v>0</v>
@@ -33446,7 +33552,7 @@
         <v>1</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F299" s="3">
         <v>1</v>
@@ -33472,7 +33578,7 @@
         <v>2</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F300" s="3">
         <v>2</v>
@@ -33498,7 +33604,7 @@
         <v>0</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F301" s="3">
         <v>0</v>
@@ -33524,7 +33630,7 @@
         <v>1</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F302" s="3">
         <v>1</v>
@@ -33550,7 +33656,7 @@
         <v>2</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F303" s="3">
         <v>2</v>
@@ -33576,7 +33682,7 @@
         <v>0</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F304" s="3">
         <v>0</v>
@@ -33602,7 +33708,7 @@
         <v>1</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F305" s="3">
         <v>1</v>
@@ -33628,7 +33734,7 @@
         <v>2</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F306" s="3">
         <v>2</v>
@@ -33654,10 +33760,10 @@
         <v>9</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H307" t="s">
         <v>302</v>
@@ -33680,7 +33786,7 @@
         <v>0</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F308" s="3">
         <v>0</v>
@@ -33706,7 +33812,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F309" s="3">
         <v>1</v>
@@ -33732,7 +33838,7 @@
         <v>2</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F310" s="3">
         <v>2</v>
@@ -33758,10 +33864,10 @@
         <v>9</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H311" t="s">
         <v>302</v>
@@ -33784,7 +33890,7 @@
         <v>0</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F312" s="3">
         <v>0</v>
@@ -33810,7 +33916,7 @@
         <v>1</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F313" s="3">
         <v>1</v>
@@ -33836,7 +33942,7 @@
         <v>2</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F314" s="3">
         <v>2</v>
@@ -33862,10 +33968,10 @@
         <v>9</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H315" t="s">
         <v>302</v>
@@ -33888,7 +33994,7 @@
         <v>0</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F316" s="3">
         <v>0</v>
@@ -33914,7 +34020,7 @@
         <v>1</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F317" s="3">
         <v>1</v>
@@ -33940,7 +34046,7 @@
         <v>2</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F318" s="3">
         <v>2</v>
@@ -33966,10 +34072,10 @@
         <v>9</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H319" t="s">
         <v>302</v>
@@ -33992,7 +34098,7 @@
         <v>0</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F320" s="3">
         <v>0</v>
@@ -34018,7 +34124,7 @@
         <v>1</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F321" s="3">
         <v>1</v>
@@ -34044,7 +34150,7 @@
         <v>2</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F322" s="3">
         <v>2</v>
@@ -34070,10 +34176,10 @@
         <v>9</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H323" t="s">
         <v>302</v>
@@ -34096,7 +34202,7 @@
         <v>0</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F324" s="3">
         <v>0</v>
@@ -34122,7 +34228,7 @@
         <v>1</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F325" s="3">
         <v>1</v>
@@ -34148,7 +34254,7 @@
         <v>2</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F326" s="3">
         <v>2</v>
@@ -34174,10 +34280,10 @@
         <v>9</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H327" t="s">
         <v>302</v>
@@ -34200,7 +34306,7 @@
         <v>0</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F328" s="3">
         <v>0</v>
@@ -34226,7 +34332,7 @@
         <v>1</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F329" s="3">
         <v>1</v>
@@ -34252,7 +34358,7 @@
         <v>2</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F330" s="3">
         <v>2</v>
@@ -34278,7 +34384,7 @@
         <v>0</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F331" s="3">
         <v>0</v>
@@ -34304,7 +34410,7 @@
         <v>1</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F332" s="3">
         <v>1</v>
@@ -34330,7 +34436,7 @@
         <v>2</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F333" s="3">
         <v>2</v>
@@ -34356,10 +34462,10 @@
         <v>9</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H334" t="s">
         <v>302</v>
@@ -34382,7 +34488,7 @@
         <v>0</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F335" s="3">
         <v>0</v>
@@ -34408,7 +34514,7 @@
         <v>1</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F336" s="3">
         <v>1</v>
@@ -34434,7 +34540,7 @@
         <v>2</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F337" s="3">
         <v>2</v>
@@ -34460,10 +34566,10 @@
         <v>9</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H338" t="s">
         <v>302</v>
@@ -34486,7 +34592,7 @@
         <v>0</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F339" s="3">
         <v>0</v>
@@ -34512,7 +34618,7 @@
         <v>1</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F340" s="3">
         <v>1</v>
@@ -34538,7 +34644,7 @@
         <v>2</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F341" s="3">
         <v>2</v>
@@ -34564,7 +34670,7 @@
         <v>0</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F342" s="3">
         <v>0</v>
@@ -34590,7 +34696,7 @@
         <v>1</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F343" s="3">
         <v>1</v>
@@ -34616,7 +34722,7 @@
         <v>2</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F344" s="3">
         <v>2</v>
@@ -34642,7 +34748,7 @@
         <v>0</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F345" s="3">
         <v>0</v>
@@ -34668,7 +34774,7 @@
         <v>1</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F346" s="3">
         <v>1</v>
@@ -34694,7 +34800,7 @@
         <v>2</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F347" s="3">
         <v>2</v>
@@ -34720,10 +34826,10 @@
         <v>9</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H348" t="s">
         <v>302</v>
@@ -34746,7 +34852,7 @@
         <v>0</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F349" s="3">
         <v>0</v>
@@ -34772,7 +34878,7 @@
         <v>1</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F350" s="3">
         <v>1</v>
@@ -34798,7 +34904,7 @@
         <v>2</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F351" s="3">
         <v>2</v>
@@ -34824,7 +34930,7 @@
         <v>0</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F352" s="3">
         <v>0</v>
@@ -34850,7 +34956,7 @@
         <v>1</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F353" s="3">
         <v>1</v>
@@ -34876,7 +34982,7 @@
         <v>2</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F354" s="3">
         <v>2</v>
@@ -34902,7 +35008,7 @@
         <v>0</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F355" s="3">
         <v>0</v>
@@ -34928,7 +35034,7 @@
         <v>1</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F356" s="3">
         <v>1</v>
@@ -34954,7 +35060,7 @@
         <v>2</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F357" s="3">
         <v>2</v>
@@ -34980,10 +35086,10 @@
         <v>9</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H358" t="s">
         <v>302</v>
@@ -35006,7 +35112,7 @@
         <v>0</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F359" s="3">
         <v>0</v>
@@ -35032,7 +35138,7 @@
         <v>1</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F360" s="3">
         <v>1</v>
@@ -35058,7 +35164,7 @@
         <v>2</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F361" s="3">
         <v>2</v>
@@ -35084,10 +35190,10 @@
         <v>9</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H362" t="s">
         <v>302</v>
@@ -35110,7 +35216,7 @@
         <v>0</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F363" s="3">
         <v>0</v>
@@ -35136,7 +35242,7 @@
         <v>1</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F364" s="3">
         <v>1</v>
@@ -35162,7 +35268,7 @@
         <v>2</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F365" s="3">
         <v>2</v>
@@ -35188,7 +35294,7 @@
         <v>0</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F366" s="3">
         <v>0</v>
@@ -35214,7 +35320,7 @@
         <v>1</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F367" s="3">
         <v>1</v>
@@ -35240,7 +35346,7 @@
         <v>2</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F368" s="3">
         <v>2</v>
@@ -35266,7 +35372,7 @@
         <v>0</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F369" s="3">
         <v>0</v>
@@ -35292,7 +35398,7 @@
         <v>1</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F370" s="3">
         <v>1</v>
@@ -35318,7 +35424,7 @@
         <v>2</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F371" s="3">
         <v>2</v>
@@ -35344,7 +35450,7 @@
         <v>0</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F372" s="3">
         <v>0</v>
@@ -35370,7 +35476,7 @@
         <v>1</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F373" s="3">
         <v>1</v>
@@ -35396,7 +35502,7 @@
         <v>2</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F374" s="3">
         <v>2</v>
@@ -35422,10 +35528,10 @@
         <v>9</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H375" t="s">
         <v>302</v>
@@ -35448,7 +35554,7 @@
         <v>0</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F376" s="3">
         <v>0</v>
@@ -35474,7 +35580,7 @@
         <v>1</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F377" s="3">
         <v>1</v>
@@ -35500,7 +35606,7 @@
         <v>2</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F378" s="3">
         <v>2</v>
@@ -35526,10 +35632,10 @@
         <v>9</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H379" t="s">
         <v>302</v>
@@ -35552,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F380" s="3">
         <v>0</v>
@@ -35578,7 +35684,7 @@
         <v>1</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F381" s="3">
         <v>1</v>
@@ -35604,7 +35710,7 @@
         <v>2</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F382" s="3">
         <v>2</v>
@@ -35630,10 +35736,10 @@
         <v>9</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H383" t="s">
         <v>302</v>
@@ -35656,7 +35762,7 @@
         <v>0</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F384" s="3">
         <v>0</v>
@@ -35682,7 +35788,7 @@
         <v>1</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F385" s="3">
         <v>1</v>
@@ -35708,7 +35814,7 @@
         <v>2</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F386" s="3">
         <v>2</v>
@@ -35734,10 +35840,10 @@
         <v>9</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H387" t="s">
         <v>302</v>
@@ -35760,7 +35866,7 @@
         <v>0</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F388" s="3">
         <v>0</v>
@@ -35786,7 +35892,7 @@
         <v>1</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F389" s="3">
         <v>1</v>
@@ -35812,7 +35918,7 @@
         <v>2</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F390" s="3">
         <v>2</v>
@@ -35838,10 +35944,10 @@
         <v>9</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H391" t="s">
         <v>302</v>
@@ -35864,7 +35970,7 @@
         <v>0</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F392" s="3">
         <v>0</v>
@@ -35890,7 +35996,7 @@
         <v>1</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F393" s="3">
         <v>1</v>
@@ -35916,7 +36022,7 @@
         <v>2</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F394" s="3">
         <v>2</v>
@@ -35942,7 +36048,7 @@
         <v>0</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F395" s="3">
         <v>0</v>
@@ -35968,7 +36074,7 @@
         <v>1</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F396" s="3">
         <v>1</v>
@@ -35994,7 +36100,7 @@
         <v>2</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F397" s="3">
         <v>2</v>
@@ -36020,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F398" s="3">
         <v>0</v>
@@ -36046,7 +36152,7 @@
         <v>1</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F399" s="3">
         <v>1</v>
@@ -36072,7 +36178,7 @@
         <v>2</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F400" s="3">
         <v>2</v>
@@ -36098,7 +36204,7 @@
         <v>0</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F401" s="3">
         <v>0</v>
@@ -36124,7 +36230,7 @@
         <v>1</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F402" s="3">
         <v>1</v>
@@ -36150,7 +36256,7 @@
         <v>2</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F403" s="3">
         <v>2</v>
@@ -36176,7 +36282,7 @@
         <v>0</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F404" s="3">
         <v>0</v>
@@ -36202,7 +36308,7 @@
         <v>1</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F405" s="3">
         <v>1</v>
@@ -36228,7 +36334,7 @@
         <v>2</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F406" s="3">
         <v>2</v>
@@ -36254,10 +36360,10 @@
         <v>9</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H407" t="s">
         <v>302</v>
@@ -36280,7 +36386,7 @@
         <v>0</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F408" s="3">
         <v>0</v>
@@ -36306,7 +36412,7 @@
         <v>1</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F409" s="3">
         <v>1</v>
@@ -36332,7 +36438,7 @@
         <v>2</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F410" s="3">
         <v>2</v>
@@ -36358,10 +36464,10 @@
         <v>9</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H411" t="s">
         <v>302</v>
@@ -36384,7 +36490,7 @@
         <v>0</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F412" s="3">
         <v>0</v>
@@ -36410,7 +36516,7 @@
         <v>1</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F413" s="3">
         <v>1</v>
@@ -36436,7 +36542,7 @@
         <v>2</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F414" s="3">
         <v>2</v>
@@ -36462,7 +36568,7 @@
         <v>0</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F415" s="3">
         <v>0</v>
@@ -36488,7 +36594,7 @@
         <v>1</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F416" s="3">
         <v>1</v>
@@ -36514,7 +36620,7 @@
         <v>2</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F417" s="3">
         <v>2</v>
@@ -36540,7 +36646,7 @@
         <v>0</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F418" s="3">
         <v>0</v>
@@ -36566,7 +36672,7 @@
         <v>1</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F419" s="3">
         <v>1</v>
@@ -36592,7 +36698,7 @@
         <v>2</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F420" s="3">
         <v>2</v>
@@ -36618,10 +36724,10 @@
         <v>9</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H421" t="s">
         <v>302</v>
@@ -36644,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F422" s="3">
         <v>0</v>
@@ -36670,7 +36776,7 @@
         <v>1</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F423" s="3">
         <v>1</v>
@@ -36696,7 +36802,7 @@
         <v>2</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F424" s="3">
         <v>2</v>
@@ -36722,10 +36828,10 @@
         <v>9</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H425" t="s">
         <v>302</v>
@@ -36748,7 +36854,7 @@
         <v>0</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F426" s="3">
         <v>0</v>
@@ -36774,7 +36880,7 @@
         <v>1</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F427" s="3">
         <v>1</v>
@@ -36800,7 +36906,7 @@
         <v>2</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F428" s="3">
         <v>2</v>
@@ -36826,10 +36932,10 @@
         <v>9</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H429" t="s">
         <v>302</v>
@@ -36852,7 +36958,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F430">
         <v>1</v>
@@ -36878,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="E431" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -36904,10 +37010,10 @@
         <v>3</v>
       </c>
       <c r="E432" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F432" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H432" t="s">
         <v>344</v>
@@ -36930,10 +37036,10 @@
         <v>9</v>
       </c>
       <c r="E433" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F433" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H433" t="s">
         <v>344</v>
@@ -36956,7 +37062,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F434">
         <v>1</v>
@@ -36982,7 +37088,7 @@
         <v>0</v>
       </c>
       <c r="E435" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -37008,7 +37114,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -37034,7 +37140,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F437">
         <v>1</v>
@@ -37060,10 +37166,10 @@
         <v>8</v>
       </c>
       <c r="E438" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F438" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H438" t="s">
         <v>347</v>
@@ -37086,7 +37192,7 @@
         <v>0</v>
       </c>
       <c r="E439" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -37112,7 +37218,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F440">
         <v>1</v>
@@ -37138,10 +37244,10 @@
         <v>8</v>
       </c>
       <c r="E441" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F441" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H441" t="s">
         <v>347</v>
@@ -37164,7 +37270,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F442" t="s">
         <v>133</v>
@@ -37190,7 +37296,7 @@
         <v>2</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F443" s="3" t="s">
         <v>133</v>
@@ -37216,10 +37322,10 @@
         <v>3</v>
       </c>
       <c r="E444" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F444" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H444" t="s">
         <v>184</v>
@@ -37242,10 +37348,10 @@
         <v>4</v>
       </c>
       <c r="E445" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F445" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H445" t="s">
         <v>184</v>
@@ -37268,10 +37374,10 @@
         <v>5</v>
       </c>
       <c r="E446" t="s">
+        <v>574</v>
+      </c>
+      <c r="F446" t="s">
         <v>572</v>
-      </c>
-      <c r="F446" t="s">
-        <v>570</v>
       </c>
       <c r="H446" t="s">
         <v>184</v>
@@ -37294,10 +37400,10 @@
         <v>-8</v>
       </c>
       <c r="E447" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F447" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H447" t="s">
         <v>184</v>
@@ -37320,10 +37426,10 @@
         <v>-9</v>
       </c>
       <c r="E448" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F448" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H448" t="s">
         <v>184</v>
@@ -37372,10 +37478,10 @@
         <v>2</v>
       </c>
       <c r="E450" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F450" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H450" t="s">
         <v>181</v>
@@ -37398,10 +37504,10 @@
         <v>3</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H451" t="s">
         <v>181</v>
@@ -37424,10 +37530,10 @@
         <v>-8</v>
       </c>
       <c r="E452" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F452" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H452" t="s">
         <v>181</v>
@@ -37450,10 +37556,10 @@
         <v>-9</v>
       </c>
       <c r="E453" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F453" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H453" t="s">
         <v>181</v>
@@ -37476,10 +37582,10 @@
         <v>0</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H454" t="s">
         <v>418</v>
@@ -37502,10 +37608,10 @@
         <v>99</v>
       </c>
       <c r="E455" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F455" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H455" t="s">
         <v>418</v>
@@ -37528,7 +37634,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F456">
         <v>1</v>
@@ -37554,7 +37660,7 @@
         <v>2</v>
       </c>
       <c r="E457" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F457">
         <v>0</v>
@@ -37580,10 +37686,10 @@
         <v>9</v>
       </c>
       <c r="E458" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F458" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H458" t="s">
         <v>419</v>
@@ -37606,7 +37712,7 @@
         <v>11</v>
       </c>
       <c r="E459" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F459" t="s">
         <v>133</v>
@@ -37632,7 +37738,7 @@
         <v>12</v>
       </c>
       <c r="E460" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F460" t="s">
         <v>133</v>
@@ -37658,7 +37764,7 @@
         <v>16</v>
       </c>
       <c r="E461" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F461" t="s">
         <v>133</v>
@@ -37684,10 +37790,10 @@
         <v>21</v>
       </c>
       <c r="E462" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F462" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H462" t="s">
         <v>170</v>
@@ -37710,10 +37816,10 @@
         <v>22</v>
       </c>
       <c r="E463" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F463" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H463" t="s">
         <v>170</v>
@@ -37736,10 +37842,10 @@
         <v>26</v>
       </c>
       <c r="E464" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F464" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H464" t="s">
         <v>170</v>
@@ -37762,10 +37868,10 @@
         <v>98</v>
       </c>
       <c r="E465" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F465" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H465" t="s">
         <v>170</v>
@@ -37788,10 +37894,10 @@
         <v>99</v>
       </c>
       <c r="E466" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F466" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H466" t="s">
         <v>170</v>
@@ -37814,7 +37920,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F467">
         <v>1</v>
@@ -37840,7 +37946,7 @@
         <v>2</v>
       </c>
       <c r="E468" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F468">
         <v>2</v>
@@ -37866,7 +37972,7 @@
         <v>0</v>
       </c>
       <c r="E469" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -37892,7 +37998,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F470">
         <v>1</v>
@@ -37918,7 +38024,7 @@
         <v>0</v>
       </c>
       <c r="E471" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F471">
         <v>0</v>
@@ -37944,7 +38050,7 @@
         <v>1</v>
       </c>
       <c r="E472" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F472">
         <v>1</v>
@@ -37970,7 +38076,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F473">
         <v>1</v>
@@ -37996,7 +38102,7 @@
         <v>2</v>
       </c>
       <c r="E474" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F474">
         <v>0</v>
@@ -38022,10 +38128,10 @@
         <v>9</v>
       </c>
       <c r="E475" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F475" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H475" t="s">
         <v>430</v>
@@ -38048,7 +38154,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F476">
         <v>1</v>
@@ -38074,7 +38180,7 @@
         <v>2</v>
       </c>
       <c r="E477" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F477">
         <v>2</v>
@@ -38100,10 +38206,10 @@
         <v>9</v>
       </c>
       <c r="E478" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F478" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H478" t="s">
         <v>432</v>
@@ -38126,7 +38232,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F479">
         <v>1</v>
@@ -38152,7 +38258,7 @@
         <v>2</v>
       </c>
       <c r="E480" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -38178,10 +38284,10 @@
         <v>9</v>
       </c>
       <c r="E481" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F481" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H481" t="s">
         <v>430</v>
@@ -38204,10 +38310,10 @@
         <v>0</v>
       </c>
       <c r="E482" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F482" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H482" t="s">
         <v>430</v>
@@ -38230,7 +38336,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F483">
         <v>1</v>
@@ -38256,7 +38362,7 @@
         <v>2</v>
       </c>
       <c r="E484" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F484">
         <v>2</v>
@@ -38282,10 +38388,10 @@
         <v>9</v>
       </c>
       <c r="E485" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F485" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H485" t="s">
         <v>432</v>
@@ -38308,10 +38414,10 @@
         <v>0</v>
       </c>
       <c r="E486" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F486" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H486" t="s">
         <v>432</v>
@@ -38334,7 +38440,7 @@
         <v>995</v>
       </c>
       <c r="E487" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F487" s="3">
         <v>0</v>
@@ -38357,10 +38463,10 @@
         <v>996</v>
       </c>
       <c r="E488" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F488" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I488" t="s">
         <v>283</v>
@@ -38380,10 +38486,10 @@
         <v>997</v>
       </c>
       <c r="E489" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F489" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I489" t="s">
         <v>283</v>
@@ -38403,10 +38509,10 @@
         <v>998</v>
       </c>
       <c r="E490" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F490" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I490" t="s">
         <v>283</v>
@@ -38426,10 +38532,10 @@
         <v>999</v>
       </c>
       <c r="E491" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F491" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I491" t="s">
         <v>283</v>
@@ -38449,7 +38555,7 @@
         <v>0</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F492" s="3">
         <v>0</v>
@@ -38472,10 +38578,10 @@
         <v>97</v>
       </c>
       <c r="E493" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F493" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I493" t="s">
         <v>283</v>
@@ -38495,10 +38601,10 @@
         <v>98</v>
       </c>
       <c r="E494" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F494" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I494" t="s">
         <v>283</v>
@@ -38518,10 +38624,10 @@
         <v>99</v>
       </c>
       <c r="E495" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F495" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I495" t="s">
         <v>283</v>
@@ -38541,10 +38647,10 @@
         <v>98</v>
       </c>
       <c r="E496" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F496" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I496" t="s">
         <v>283</v>
@@ -38564,10 +38670,10 @@
         <v>99</v>
       </c>
       <c r="E497" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F497" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I497" t="s">
         <v>283</v>
@@ -38587,7 +38693,7 @@
         <v>1</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F498" s="3">
         <v>1</v>
@@ -38610,7 +38716,7 @@
         <v>2</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F499" s="3">
         <v>2</v>
@@ -38633,7 +38739,7 @@
         <v>3</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F500" s="3">
         <v>3</v>
@@ -38656,7 +38762,7 @@
         <v>4</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F501" s="3">
         <v>4</v>
@@ -38679,7 +38785,7 @@
         <v>5</v>
       </c>
       <c r="E502" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F502" s="3">
         <v>5</v>
@@ -38702,7 +38808,7 @@
         <v>6</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F503" s="3">
         <v>6</v>
@@ -38725,7 +38831,7 @@
         <v>7</v>
       </c>
       <c r="E504" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F504" s="3">
         <v>7</v>
@@ -38748,10 +38854,10 @@
         <v>96</v>
       </c>
       <c r="E505" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F505" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I505" t="s">
         <v>283</v>
@@ -38771,10 +38877,10 @@
         <v>99</v>
       </c>
       <c r="E506" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F506" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I506" t="s">
         <v>283</v>
@@ -38794,7 +38900,7 @@
         <v>1</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F507" s="3">
         <v>1</v>
@@ -38817,7 +38923,7 @@
         <v>2</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F508" s="3">
         <v>2</v>
@@ -38840,7 +38946,7 @@
         <v>3</v>
       </c>
       <c r="E509" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F509" s="3">
         <v>3</v>
@@ -38863,7 +38969,7 @@
         <v>4</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F510" s="3">
         <v>4</v>
@@ -38886,7 +38992,7 @@
         <v>5</v>
       </c>
       <c r="E511" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F511" s="3">
         <v>5</v>
@@ -38909,7 +39015,7 @@
         <v>6</v>
       </c>
       <c r="E512" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F512" s="3">
         <v>6</v>
@@ -38932,7 +39038,7 @@
         <v>7</v>
       </c>
       <c r="E513" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F513" s="3">
         <v>7</v>
@@ -38955,10 +39061,10 @@
         <v>96</v>
       </c>
       <c r="E514" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F514" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I514" t="s">
         <v>283</v>
@@ -38978,10 +39084,10 @@
         <v>99</v>
       </c>
       <c r="E515" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F515" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I515" t="s">
         <v>283</v>
@@ -39001,7 +39107,7 @@
         <v>1</v>
       </c>
       <c r="E516" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F516" s="3">
         <v>1</v>
@@ -39024,7 +39130,7 @@
         <v>2</v>
       </c>
       <c r="E517" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F517" s="3">
         <v>2</v>
@@ -39047,7 +39153,7 @@
         <v>3</v>
       </c>
       <c r="E518" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F518" s="3">
         <v>3</v>
@@ -39070,7 +39176,7 @@
         <v>4</v>
       </c>
       <c r="E519" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F519" s="3">
         <v>4</v>
@@ -39093,7 +39199,7 @@
         <v>5</v>
       </c>
       <c r="E520" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F520" s="3">
         <v>5</v>
@@ -39116,7 +39222,7 @@
         <v>6</v>
       </c>
       <c r="E521" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F521" s="3">
         <v>6</v>
@@ -39139,7 +39245,7 @@
         <v>7</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F522" s="3">
         <v>7</v>
@@ -39162,10 +39268,10 @@
         <v>96</v>
       </c>
       <c r="E523" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F523" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I523" t="s">
         <v>283</v>
@@ -39185,10 +39291,10 @@
         <v>99</v>
       </c>
       <c r="E524" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F524" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I524" t="s">
         <v>283</v>
@@ -39208,7 +39314,7 @@
         <v>0</v>
       </c>
       <c r="E525" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F525">
         <v>0</v>
@@ -39231,7 +39337,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F526">
         <v>1</v>
@@ -39254,10 +39360,10 @@
         <v>8</v>
       </c>
       <c r="E527" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F527" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I527" t="s">
         <v>283</v>
@@ -39277,10 +39383,10 @@
         <v>9</v>
       </c>
       <c r="E528" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F528" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I528" t="s">
         <v>283</v>
@@ -39300,7 +39406,7 @@
         <v>0</v>
       </c>
       <c r="E529" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F529">
         <v>0</v>
@@ -39323,7 +39429,7 @@
         <v>1</v>
       </c>
       <c r="E530" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F530">
         <v>1</v>
@@ -39346,10 +39452,10 @@
         <v>8</v>
       </c>
       <c r="E531" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F531" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I531" t="s">
         <v>283</v>
@@ -39369,10 +39475,10 @@
         <v>9</v>
       </c>
       <c r="E532" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F532" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I532" t="s">
         <v>283</v>
@@ -39392,7 +39498,7 @@
         <v>0</v>
       </c>
       <c r="E533" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F533">
         <v>0</v>
@@ -39415,7 +39521,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F534">
         <v>1</v>
@@ -39438,10 +39544,10 @@
         <v>8</v>
       </c>
       <c r="E535" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F535" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I535" t="s">
         <v>283</v>
@@ -39461,10 +39567,10 @@
         <v>9</v>
       </c>
       <c r="E536" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F536" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I536" t="s">
         <v>283</v>
@@ -39484,7 +39590,7 @@
         <v>0</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F537" s="3">
         <v>0</v>
@@ -39507,7 +39613,7 @@
         <v>1</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F538" s="3">
         <v>1</v>
@@ -39530,7 +39636,7 @@
         <v>2</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F539" s="3">
         <v>2</v>
@@ -39553,7 +39659,7 @@
         <v>3</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F540" s="3">
         <v>3</v>
@@ -39576,7 +39682,7 @@
         <v>4</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F541" s="3">
         <v>4</v>
@@ -39599,7 +39705,7 @@
         <v>5</v>
       </c>
       <c r="E542" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F542" s="3">
         <v>5</v>
@@ -39622,10 +39728,10 @@
         <v>9</v>
       </c>
       <c r="E543" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F543" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I543" t="s">
         <v>283</v>
@@ -39645,7 +39751,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F544">
         <v>0</v>
@@ -39668,7 +39774,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F545">
         <v>1</v>
@@ -39691,10 +39797,10 @@
         <v>9</v>
       </c>
       <c r="E546" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F546" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I546" t="s">
         <v>283</v>
@@ -39714,7 +39820,7 @@
         <v>0</v>
       </c>
       <c r="E547" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F547">
         <v>0</v>
@@ -39737,7 +39843,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F548">
         <v>1</v>
@@ -39760,10 +39866,10 @@
         <v>8</v>
       </c>
       <c r="E549" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F549" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I549" t="s">
         <v>283</v>
@@ -39783,10 +39889,10 @@
         <v>9</v>
       </c>
       <c r="E550" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F550" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I550" t="s">
         <v>283</v>
@@ -39806,7 +39912,7 @@
         <v>0</v>
       </c>
       <c r="E551" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F551">
         <v>0</v>
@@ -39829,7 +39935,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F552">
         <v>1</v>
@@ -39852,10 +39958,10 @@
         <v>8</v>
       </c>
       <c r="E553" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F553" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I553" t="s">
         <v>283</v>
@@ -39875,7 +39981,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F554">
         <v>0</v>
@@ -39898,7 +40004,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F555">
         <v>1</v>
@@ -39921,7 +40027,7 @@
         <v>0</v>
       </c>
       <c r="E556" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F556" s="3">
         <v>0</v>
@@ -39944,10 +40050,10 @@
         <v>95</v>
       </c>
       <c r="E557" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F557" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I557" t="s">
         <v>283</v>
@@ -39967,10 +40073,10 @@
         <v>97</v>
       </c>
       <c r="E558" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F558" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I558" t="s">
         <v>283</v>
@@ -39990,10 +40096,10 @@
         <v>98</v>
       </c>
       <c r="E559" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F559" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I559" t="s">
         <v>283</v>
@@ -40013,10 +40119,10 @@
         <v>99</v>
       </c>
       <c r="E560" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F560" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I560" t="s">
         <v>283</v>
@@ -40036,7 +40142,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F561">
         <v>1</v>
@@ -40059,7 +40165,7 @@
         <v>2</v>
       </c>
       <c r="E562" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F562">
         <v>0</v>
@@ -40082,10 +40188,10 @@
         <v>9</v>
       </c>
       <c r="E563" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F563" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I563" t="s">
         <v>283</v>
@@ -40105,7 +40211,7 @@
         <v>1</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F564" s="3">
         <v>1</v>
@@ -40128,7 +40234,7 @@
         <v>2</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F565" s="3">
         <v>2</v>
@@ -40151,7 +40257,7 @@
         <v>3</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F566" s="3">
         <v>3</v>
@@ -40174,7 +40280,7 @@
         <v>4</v>
       </c>
       <c r="E567" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F567" s="3">
         <v>4</v>
@@ -40197,7 +40303,7 @@
         <v>5</v>
       </c>
       <c r="E568" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F568" s="3">
         <v>5</v>
@@ -40220,7 +40326,7 @@
         <v>6</v>
       </c>
       <c r="E569" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F569" s="3">
         <v>6</v>
@@ -40243,10 +40349,10 @@
         <v>96</v>
       </c>
       <c r="E570" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F570" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I570" t="s">
         <v>283</v>
@@ -40266,10 +40372,10 @@
         <v>99</v>
       </c>
       <c r="E571" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F571" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I571" t="s">
         <v>283</v>
@@ -40289,7 +40395,7 @@
         <v>1</v>
       </c>
       <c r="E572" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F572" s="3">
         <v>1</v>
@@ -40312,7 +40418,7 @@
         <v>2</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F573" s="3">
         <v>2</v>
@@ -40335,7 +40441,7 @@
         <v>3</v>
       </c>
       <c r="E574" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F574" s="3">
         <v>3</v>
@@ -40358,7 +40464,7 @@
         <v>4</v>
       </c>
       <c r="E575" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F575" s="3">
         <v>4</v>
@@ -40381,7 +40487,7 @@
         <v>5</v>
       </c>
       <c r="E576" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F576" s="3">
         <v>5</v>
@@ -40404,7 +40510,7 @@
         <v>6</v>
       </c>
       <c r="E577" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F577" s="3">
         <v>6</v>
@@ -40427,10 +40533,10 @@
         <v>96</v>
       </c>
       <c r="E578" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F578" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I578" t="s">
         <v>283</v>
@@ -40450,10 +40556,10 @@
         <v>99</v>
       </c>
       <c r="E579" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F579" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I579" t="s">
         <v>283</v>
@@ -40473,10 +40579,10 @@
         <v>99</v>
       </c>
       <c r="E580" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F580" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I580" t="s">
         <v>283</v>
@@ -40496,7 +40602,7 @@
         <v>0</v>
       </c>
       <c r="E581" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F581" s="3">
         <v>0</v>
@@ -40519,10 +40625,10 @@
         <v>95</v>
       </c>
       <c r="E582" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F582" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I582" t="s">
         <v>283</v>
@@ -40542,10 +40648,10 @@
         <v>97</v>
       </c>
       <c r="E583" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F583" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I583" t="s">
         <v>283</v>
@@ -40565,10 +40671,10 @@
         <v>98</v>
       </c>
       <c r="E584" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F584" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I584" t="s">
         <v>283</v>
@@ -40588,10 +40694,10 @@
         <v>99</v>
       </c>
       <c r="E585" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F585" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I585" t="s">
         <v>283</v>
@@ -40611,7 +40717,7 @@
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F586">
         <v>1</v>
@@ -40634,7 +40740,7 @@
         <v>2</v>
       </c>
       <c r="E587" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F587">
         <v>0</v>
@@ -40657,10 +40763,10 @@
         <v>9</v>
       </c>
       <c r="E588" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F588" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I588" t="s">
         <v>283</v>
@@ -40680,7 +40786,7 @@
         <v>1</v>
       </c>
       <c r="E589" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F589" s="3">
         <v>1</v>
@@ -40703,7 +40809,7 @@
         <v>2</v>
       </c>
       <c r="E590" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F590" s="3">
         <v>2</v>
@@ -40726,7 +40832,7 @@
         <v>3</v>
       </c>
       <c r="E591" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F591" s="3">
         <v>3</v>
@@ -40749,7 +40855,7 @@
         <v>4</v>
       </c>
       <c r="E592" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F592" s="3">
         <v>4</v>
@@ -40772,7 +40878,7 @@
         <v>5</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F593" s="3">
         <v>5</v>
@@ -40795,7 +40901,7 @@
         <v>6</v>
       </c>
       <c r="E594" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F594" s="3">
         <v>6</v>
@@ -40818,10 +40924,10 @@
         <v>96</v>
       </c>
       <c r="E595" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F595" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I595" t="s">
         <v>283</v>
@@ -40841,10 +40947,10 @@
         <v>99</v>
       </c>
       <c r="E596" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F596" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I596" t="s">
         <v>283</v>
@@ -40864,7 +40970,7 @@
         <v>1</v>
       </c>
       <c r="E597" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F597" s="3">
         <v>1</v>
@@ -40887,7 +40993,7 @@
         <v>2</v>
       </c>
       <c r="E598" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F598" s="3">
         <v>2</v>
@@ -40910,7 +41016,7 @@
         <v>3</v>
       </c>
       <c r="E599" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F599" s="3">
         <v>3</v>
@@ -40933,7 +41039,7 @@
         <v>4</v>
       </c>
       <c r="E600" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F600" s="3">
         <v>4</v>
@@ -40956,7 +41062,7 @@
         <v>5</v>
       </c>
       <c r="E601" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F601" s="3">
         <v>5</v>
@@ -40979,7 +41085,7 @@
         <v>6</v>
       </c>
       <c r="E602" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F602" s="3">
         <v>6</v>
@@ -41002,10 +41108,10 @@
         <v>96</v>
       </c>
       <c r="E603" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F603" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I603" t="s">
         <v>283</v>
@@ -41025,10 +41131,10 @@
         <v>99</v>
       </c>
       <c r="E604" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F604" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I604" t="s">
         <v>283</v>
@@ -41048,10 +41154,10 @@
         <v>99</v>
       </c>
       <c r="E605" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F605" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I605" t="s">
         <v>283</v>
@@ -41071,7 +41177,7 @@
         <v>0</v>
       </c>
       <c r="E606" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F606" s="3">
         <v>0</v>
@@ -41094,10 +41200,10 @@
         <v>95</v>
       </c>
       <c r="E607" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F607" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I607" t="s">
         <v>283</v>
@@ -41117,10 +41223,10 @@
         <v>97</v>
       </c>
       <c r="E608" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F608" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I608" t="s">
         <v>283</v>
@@ -41140,10 +41246,10 @@
         <v>98</v>
       </c>
       <c r="E609" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F609" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I609" t="s">
         <v>283</v>
@@ -41163,10 +41269,10 @@
         <v>99</v>
       </c>
       <c r="E610" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F610" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I610" t="s">
         <v>283</v>
@@ -41186,7 +41292,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F611">
         <v>1</v>
@@ -41209,7 +41315,7 @@
         <v>2</v>
       </c>
       <c r="E612" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F612">
         <v>0</v>
@@ -41232,10 +41338,10 @@
         <v>9</v>
       </c>
       <c r="E613" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F613" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I613" t="s">
         <v>283</v>
@@ -41255,7 +41361,7 @@
         <v>1</v>
       </c>
       <c r="E614" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F614" s="3">
         <v>1</v>
@@ -41278,7 +41384,7 @@
         <v>2</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F615" s="3">
         <v>2</v>
@@ -41301,7 +41407,7 @@
         <v>3</v>
       </c>
       <c r="E616" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F616" s="3">
         <v>3</v>
@@ -41324,7 +41430,7 @@
         <v>4</v>
       </c>
       <c r="E617" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F617" s="3">
         <v>4</v>
@@ -41347,7 +41453,7 @@
         <v>5</v>
       </c>
       <c r="E618" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F618" s="3">
         <v>5</v>
@@ -41370,7 +41476,7 @@
         <v>6</v>
       </c>
       <c r="E619" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F619" s="3">
         <v>6</v>
@@ -41393,10 +41499,10 @@
         <v>96</v>
       </c>
       <c r="E620" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F620" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I620" t="s">
         <v>283</v>
@@ -41416,10 +41522,10 @@
         <v>99</v>
       </c>
       <c r="E621" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F621" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I621" t="s">
         <v>283</v>
@@ -41439,7 +41545,7 @@
         <v>1</v>
       </c>
       <c r="E622" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F622" s="3">
         <v>1</v>
@@ -41462,7 +41568,7 @@
         <v>2</v>
       </c>
       <c r="E623" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F623" s="3">
         <v>2</v>
@@ -41485,7 +41591,7 @@
         <v>3</v>
       </c>
       <c r="E624" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F624" s="3">
         <v>3</v>
@@ -41508,7 +41614,7 @@
         <v>4</v>
       </c>
       <c r="E625" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F625" s="3">
         <v>4</v>
@@ -41531,7 +41637,7 @@
         <v>5</v>
       </c>
       <c r="E626" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F626" s="3">
         <v>5</v>
@@ -41554,7 +41660,7 @@
         <v>6</v>
       </c>
       <c r="E627" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F627" s="3">
         <v>6</v>
@@ -41577,10 +41683,10 @@
         <v>96</v>
       </c>
       <c r="E628" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F628" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I628" t="s">
         <v>283</v>
@@ -41600,10 +41706,10 @@
         <v>99</v>
       </c>
       <c r="E629" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F629" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I629" t="s">
         <v>283</v>
@@ -41623,10 +41729,10 @@
         <v>99</v>
       </c>
       <c r="E630" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F630" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I630" t="s">
         <v>283</v>
@@ -41646,7 +41752,7 @@
         <v>1</v>
       </c>
       <c r="E631" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F631" s="3">
         <v>1</v>
@@ -41669,7 +41775,7 @@
         <v>2</v>
       </c>
       <c r="E632" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F632" s="3">
         <v>2</v>
@@ -41692,7 +41798,7 @@
         <v>3</v>
       </c>
       <c r="E633" s="3" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F633" s="3">
         <v>3</v>
@@ -41715,7 +41821,7 @@
         <v>4</v>
       </c>
       <c r="E634" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F634" s="3">
         <v>4</v>
@@ -41738,7 +41844,7 @@
         <v>5</v>
       </c>
       <c r="E635" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F635" s="3">
         <v>5</v>
@@ -41761,10 +41867,10 @@
         <v>6</v>
       </c>
       <c r="E636" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F636" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I636" t="s">
         <v>283</v>
@@ -41784,10 +41890,10 @@
         <v>7</v>
       </c>
       <c r="E637" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F637" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I637" t="s">
         <v>283</v>
@@ -41807,10 +41913,10 @@
         <v>9</v>
       </c>
       <c r="E638" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F638" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I638" t="s">
         <v>283</v>
@@ -41830,7 +41936,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F639">
         <v>1</v>
@@ -41853,7 +41959,7 @@
         <v>2</v>
       </c>
       <c r="E640" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -41876,10 +41982,10 @@
         <v>7</v>
       </c>
       <c r="E641" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F641" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I641" t="s">
         <v>283</v>
@@ -41899,10 +42005,10 @@
         <v>9</v>
       </c>
       <c r="E642" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F642" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I642" t="s">
         <v>283</v>
@@ -41922,7 +42028,7 @@
         <v>0</v>
       </c>
       <c r="E643" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F643" s="3">
         <v>0</v>
@@ -41945,10 +42051,10 @@
         <v>95</v>
       </c>
       <c r="E644" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F644" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I644" t="s">
         <v>283</v>
@@ -41968,10 +42074,10 @@
         <v>97</v>
       </c>
       <c r="E645" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F645" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I645" t="s">
         <v>283</v>
@@ -41991,10 +42097,10 @@
         <v>98</v>
       </c>
       <c r="E646" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F646" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I646" t="s">
         <v>283</v>
@@ -42014,10 +42120,10 @@
         <v>99</v>
       </c>
       <c r="E647" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F647" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I647" t="s">
         <v>283</v>
@@ -42037,10 +42143,10 @@
         <v>99</v>
       </c>
       <c r="E648" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F648" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I648" t="s">
         <v>283</v>
@@ -42060,7 +42166,7 @@
         <v>1</v>
       </c>
       <c r="E649" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F649" s="3">
         <v>1</v>
@@ -42083,7 +42189,7 @@
         <v>2</v>
       </c>
       <c r="E650" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F650" s="3">
         <v>2</v>
@@ -42106,7 +42212,7 @@
         <v>3</v>
       </c>
       <c r="E651" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F651" s="3">
         <v>3</v>
@@ -42129,7 +42235,7 @@
         <v>4</v>
       </c>
       <c r="E652" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F652" s="3">
         <v>4</v>
@@ -42152,7 +42258,7 @@
         <v>5</v>
       </c>
       <c r="E653" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F653" s="3">
         <v>5</v>
@@ -42175,10 +42281,10 @@
         <v>6</v>
       </c>
       <c r="E654" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F654" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I654" t="s">
         <v>283</v>
@@ -42198,10 +42304,10 @@
         <v>9</v>
       </c>
       <c r="E655" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F655" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I655" t="s">
         <v>283</v>
@@ -42221,7 +42327,7 @@
         <v>1</v>
       </c>
       <c r="E656" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F656" s="3">
         <v>1</v>
@@ -42244,7 +42350,7 @@
         <v>2</v>
       </c>
       <c r="E657" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F657" s="3">
         <v>2</v>
@@ -42267,7 +42373,7 @@
         <v>3</v>
       </c>
       <c r="E658" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F658" s="3">
         <v>3</v>
@@ -42290,7 +42396,7 @@
         <v>4</v>
       </c>
       <c r="E659" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F659" s="3">
         <v>4</v>
@@ -42313,7 +42419,7 @@
         <v>5</v>
       </c>
       <c r="E660" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F660" s="3">
         <v>5</v>
@@ -42336,10 +42442,10 @@
         <v>6</v>
       </c>
       <c r="E661" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F661" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I661" t="s">
         <v>283</v>
@@ -42359,10 +42465,10 @@
         <v>9</v>
       </c>
       <c r="E662" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F662" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I662" t="s">
         <v>283</v>
@@ -42382,7 +42488,7 @@
         <v>1</v>
       </c>
       <c r="E663" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F663" s="3">
         <v>1</v>
@@ -42405,7 +42511,7 @@
         <v>2</v>
       </c>
       <c r="E664" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F664" s="3">
         <v>2</v>
@@ -42428,7 +42534,7 @@
         <v>3</v>
       </c>
       <c r="E665" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F665" s="3">
         <v>3</v>
@@ -42451,10 +42557,10 @@
         <v>9</v>
       </c>
       <c r="E666" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F666" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I666" t="s">
         <v>283</v>
@@ -42474,7 +42580,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F667">
         <v>1</v>
@@ -42497,7 +42603,7 @@
         <v>2</v>
       </c>
       <c r="E668" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F668">
         <v>0</v>
@@ -42520,10 +42626,10 @@
         <v>9</v>
       </c>
       <c r="E669" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F669" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I669" t="s">
         <v>283</v>
@@ -42543,7 +42649,7 @@
         <v>1</v>
       </c>
       <c r="E670" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F670" s="3">
         <v>1</v>
@@ -42566,7 +42672,7 @@
         <v>2</v>
       </c>
       <c r="E671" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F671" s="3">
         <v>2</v>
@@ -42589,7 +42695,7 @@
         <v>3</v>
       </c>
       <c r="E672" s="3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F672" s="3">
         <v>3</v>
@@ -42612,7 +42718,7 @@
         <v>4</v>
       </c>
       <c r="E673" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F673" s="3">
         <v>4</v>
@@ -42635,7 +42741,7 @@
         <v>5</v>
       </c>
       <c r="E674" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F674" s="3">
         <v>5</v>
@@ -42658,10 +42764,10 @@
         <v>6</v>
       </c>
       <c r="E675" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F675" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I675" t="s">
         <v>283</v>
@@ -42681,10 +42787,10 @@
         <v>9</v>
       </c>
       <c r="E676" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F676" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I676" t="s">
         <v>283</v>
@@ -42704,7 +42810,7 @@
         <v>1</v>
       </c>
       <c r="E677" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F677" s="3">
         <v>1</v>
@@ -42727,7 +42833,7 @@
         <v>2</v>
       </c>
       <c r="E678" s="3" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F678" s="3">
         <v>2</v>
@@ -42750,7 +42856,7 @@
         <v>3</v>
       </c>
       <c r="E679" s="3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F679" s="3">
         <v>3</v>
@@ -42773,7 +42879,7 @@
         <v>4</v>
       </c>
       <c r="E680" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F680" s="3">
         <v>4</v>
@@ -42796,7 +42902,7 @@
         <v>5</v>
       </c>
       <c r="E681" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F681" s="3">
         <v>5</v>
@@ -42819,10 +42925,10 @@
         <v>6</v>
       </c>
       <c r="E682" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F682" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I682" t="s">
         <v>283</v>
@@ -42842,10 +42948,10 @@
         <v>9</v>
       </c>
       <c r="E683" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F683" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I683" t="s">
         <v>283</v>
@@ -42865,7 +42971,7 @@
         <v>0</v>
       </c>
       <c r="E684" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F684" s="3">
         <v>0</v>
@@ -42888,10 +42994,10 @@
         <v>95</v>
       </c>
       <c r="E685" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F685" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I685" t="s">
         <v>283</v>
@@ -42911,10 +43017,10 @@
         <v>97</v>
       </c>
       <c r="E686" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F686" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I686" t="s">
         <v>283</v>
@@ -42934,10 +43040,10 @@
         <v>98</v>
       </c>
       <c r="E687" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F687" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I687" t="s">
         <v>283</v>
@@ -42957,10 +43063,10 @@
         <v>99</v>
       </c>
       <c r="E688" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F688" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I688" t="s">
         <v>283</v>
@@ -42980,10 +43086,10 @@
         <v>99</v>
       </c>
       <c r="E689" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F689" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I689" t="s">
         <v>283</v>
@@ -43003,7 +43109,7 @@
         <v>1</v>
       </c>
       <c r="E690" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F690" s="3">
         <v>1</v>
@@ -43026,7 +43132,7 @@
         <v>2</v>
       </c>
       <c r="E691" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F691" s="3">
         <v>2</v>
@@ -43049,7 +43155,7 @@
         <v>3</v>
       </c>
       <c r="E692" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F692" s="3">
         <v>3</v>
@@ -43072,10 +43178,10 @@
         <v>9</v>
       </c>
       <c r="E693" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F693" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I693" t="s">
         <v>283</v>
@@ -43095,7 +43201,7 @@
         <v>1</v>
       </c>
       <c r="E694" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F694">
         <v>1</v>
@@ -43118,7 +43224,7 @@
         <v>2</v>
       </c>
       <c r="E695" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F695">
         <v>0</v>
@@ -43141,10 +43247,10 @@
         <v>9</v>
       </c>
       <c r="E696" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F696" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I696" t="s">
         <v>283</v>
@@ -43164,7 +43270,7 @@
         <v>1</v>
       </c>
       <c r="E697" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F697" s="2">
         <v>1</v>
@@ -43187,7 +43293,7 @@
         <v>2</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F698" s="2">
         <v>1</v>
@@ -43210,7 +43316,7 @@
         <v>3</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F699" s="2">
         <v>0</v>
@@ -43233,7 +43339,7 @@
         <v>4</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F700" s="2">
         <v>0</v>
@@ -43256,7 +43362,7 @@
         <v>5</v>
       </c>
       <c r="E701" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F701" s="2">
         <v>0</v>
@@ -43279,10 +43385,10 @@
         <v>-8</v>
       </c>
       <c r="E702" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F702" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I702" t="s">
         <v>283</v>
@@ -43302,10 +43408,10 @@
         <v>-9</v>
       </c>
       <c r="E703" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F703" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I703" t="s">
         <v>283</v>
@@ -43325,7 +43431,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F704">
         <v>1</v>
@@ -43348,7 +43454,7 @@
         <v>2</v>
       </c>
       <c r="E705" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F705">
         <v>0</v>
@@ -43371,10 +43477,10 @@
         <v>-8</v>
       </c>
       <c r="E706" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F706" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I706" t="s">
         <v>283</v>
@@ -43394,10 +43500,10 @@
         <v>-9</v>
       </c>
       <c r="E707" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F707" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I707" t="s">
         <v>283</v>
@@ -43417,7 +43523,7 @@
         <v>1</v>
       </c>
       <c r="E708" s="5" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F708" s="2">
         <v>1</v>
@@ -43440,7 +43546,7 @@
         <v>2</v>
       </c>
       <c r="E709" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F709" s="2">
         <v>2</v>
@@ -43463,7 +43569,7 @@
         <v>3</v>
       </c>
       <c r="E710" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F710" s="2">
         <v>3</v>
@@ -43486,7 +43592,7 @@
         <v>4</v>
       </c>
       <c r="E711" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F711" s="2">
         <v>4</v>
@@ -43509,7 +43615,7 @@
         <v>5</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F712" s="2">
         <v>5</v>
@@ -43532,7 +43638,7 @@
         <v>6</v>
       </c>
       <c r="E713" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F713" s="2">
         <v>6</v>
@@ -43555,7 +43661,7 @@
         <v>7</v>
       </c>
       <c r="E714" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F714" s="2">
         <v>7</v>
@@ -43578,7 +43684,7 @@
         <v>8</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F715" s="2">
         <v>8</v>
@@ -43601,10 +43707,10 @@
         <v>96</v>
       </c>
       <c r="E716" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I716" t="s">
         <v>283</v>
@@ -43624,10 +43730,10 @@
         <v>-8</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I717" t="s">
         <v>283</v>
@@ -43647,10 +43753,10 @@
         <v>-9</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I718" t="s">
         <v>283</v>
@@ -43670,7 +43776,7 @@
         <v>1</v>
       </c>
       <c r="E719" s="5" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F719" s="2">
         <v>1</v>
@@ -43693,7 +43799,7 @@
         <v>2</v>
       </c>
       <c r="E720" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F720" s="2">
         <v>2</v>
@@ -43716,7 +43822,7 @@
         <v>3</v>
       </c>
       <c r="E721" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F721" s="2">
         <v>3</v>
@@ -43739,7 +43845,7 @@
         <v>4</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F722" s="2">
         <v>4</v>
@@ -43762,7 +43868,7 @@
         <v>5</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F723" s="2">
         <v>5</v>
@@ -43785,7 +43891,7 @@
         <v>6</v>
       </c>
       <c r="E724" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F724" s="2">
         <v>6</v>
@@ -43808,7 +43914,7 @@
         <v>7</v>
       </c>
       <c r="E725" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F725" s="2">
         <v>7</v>
@@ -43831,7 +43937,7 @@
         <v>8</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F726" s="2">
         <v>8</v>
@@ -43854,10 +43960,10 @@
         <v>96</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F727" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I727" t="s">
         <v>283</v>
@@ -43877,10 +43983,10 @@
         <v>-8</v>
       </c>
       <c r="E728" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I728" t="s">
         <v>283</v>
@@ -43900,10 +44006,10 @@
         <v>-9</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I729" t="s">
         <v>283</v>
@@ -43923,7 +44029,7 @@
         <v>1</v>
       </c>
       <c r="E730" s="5" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F730" s="2">
         <v>1</v>
@@ -43946,7 +44052,7 @@
         <v>2</v>
       </c>
       <c r="E731" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F731" s="2">
         <v>2</v>
@@ -43969,7 +44075,7 @@
         <v>3</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F732" s="2">
         <v>3</v>
@@ -43992,7 +44098,7 @@
         <v>4</v>
       </c>
       <c r="E733" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F733" s="2">
         <v>4</v>
@@ -44015,7 +44121,7 @@
         <v>5</v>
       </c>
       <c r="E734" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F734" s="2">
         <v>5</v>
@@ -44038,7 +44144,7 @@
         <v>6</v>
       </c>
       <c r="E735" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F735" s="2">
         <v>6</v>
@@ -44061,7 +44167,7 @@
         <v>7</v>
       </c>
       <c r="E736" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F736" s="2">
         <v>7</v>
@@ -44084,7 +44190,7 @@
         <v>8</v>
       </c>
       <c r="E737" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F737" s="2">
         <v>8</v>
@@ -44107,10 +44213,10 @@
         <v>96</v>
       </c>
       <c r="E738" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F738" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I738" t="s">
         <v>283</v>
@@ -44130,10 +44236,10 @@
         <v>-8</v>
       </c>
       <c r="E739" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F739" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I739" t="s">
         <v>283</v>
@@ -44153,10 +44259,10 @@
         <v>-9</v>
       </c>
       <c r="E740" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I740" t="s">
         <v>283</v>
@@ -44176,7 +44282,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F741" t="s">
         <v>133</v>
@@ -44202,10 +44308,10 @@
         <v>2</v>
       </c>
       <c r="E742" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F742" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H742" t="s">
         <v>178</v>
@@ -44228,13 +44334,13 @@
         <v>3</v>
       </c>
       <c r="E743" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F743" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G743" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H743" t="s">
         <v>178</v>
@@ -44257,10 +44363,10 @@
         <v>4</v>
       </c>
       <c r="E744" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F744" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H744" t="s">
         <v>178</v>
@@ -44283,10 +44389,10 @@
         <v>96</v>
       </c>
       <c r="E745" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F745" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H745" t="s">
         <v>178</v>
@@ -44309,10 +44415,10 @@
         <v>-8</v>
       </c>
       <c r="E746" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F746" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H746" t="s">
         <v>178</v>
@@ -44335,10 +44441,10 @@
         <v>-9</v>
       </c>
       <c r="E747" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F747" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H747" t="s">
         <v>178</v>
@@ -44361,7 +44467,7 @@
         <v>0</v>
       </c>
       <c r="E748" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F748">
         <v>0</v>
@@ -44387,7 +44493,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F749">
         <v>1</v>
@@ -44413,10 +44519,10 @@
         <v>8</v>
       </c>
       <c r="E750" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F750" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H750" t="s">
         <v>191</v>
@@ -44439,10 +44545,10 @@
         <v>9</v>
       </c>
       <c r="E751" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F751" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H751" t="s">
         <v>191</v>
@@ -44465,7 +44571,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F752">
         <v>0</v>
@@ -44491,7 +44597,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F753">
         <v>1</v>
@@ -44517,10 +44623,10 @@
         <v>8</v>
       </c>
       <c r="E754" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F754" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H754" t="s">
         <v>188</v>
@@ -44543,10 +44649,10 @@
         <v>9</v>
       </c>
       <c r="E755" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F755" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H755" t="s">
         <v>188</v>
@@ -44569,7 +44675,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F756">
         <v>0</v>
@@ -44595,7 +44701,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F757">
         <v>1</v>
@@ -44621,10 +44727,10 @@
         <v>8</v>
       </c>
       <c r="E758" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F758" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H758" t="s">
         <v>157</v>
@@ -44647,10 +44753,10 @@
         <v>9</v>
       </c>
       <c r="E759" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F759" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H759" t="s">
         <v>157</v>
@@ -44673,10 +44779,10 @@
         <v>95</v>
       </c>
       <c r="E760" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F760" t="s">
         <v>568</v>
-      </c>
-      <c r="F760" t="s">
-        <v>566</v>
       </c>
       <c r="H760" t="s">
         <v>159</v>
@@ -44699,10 +44805,10 @@
         <v>98</v>
       </c>
       <c r="E761" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F761" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H761" t="s">
         <v>159</v>
@@ -44725,10 +44831,10 @@
         <v>99</v>
       </c>
       <c r="E762" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F762" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H762" t="s">
         <v>159</v>
@@ -44751,10 +44857,10 @@
         <v>1</v>
       </c>
       <c r="E763" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F763" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H763" t="s">
         <v>160</v>
@@ -44777,7 +44883,7 @@
         <v>2</v>
       </c>
       <c r="E764" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F764" t="s">
         <v>133</v>
@@ -44803,10 +44909,10 @@
         <v>96</v>
       </c>
       <c r="E765" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F765" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H765" t="s">
         <v>160</v>
@@ -44829,10 +44935,10 @@
         <v>98</v>
       </c>
       <c r="E766" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F766" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H766" t="s">
         <v>160</v>
@@ -44855,10 +44961,10 @@
         <v>99</v>
       </c>
       <c r="E767" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F767" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H767" t="s">
         <v>160</v>
@@ -44881,10 +44987,10 @@
         <v>11</v>
       </c>
       <c r="E768" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F768" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H768" t="s">
         <v>160</v>
@@ -44907,10 +45013,10 @@
         <v>12</v>
       </c>
       <c r="E769" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F769" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H769" t="s">
         <v>160</v>
@@ -44933,10 +45039,10 @@
         <v>16</v>
       </c>
       <c r="E770" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F770" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H770" t="s">
         <v>160</v>
@@ -44959,7 +45065,7 @@
         <v>21</v>
       </c>
       <c r="E771" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F771" t="s">
         <v>133</v>
@@ -44985,7 +45091,7 @@
         <v>22</v>
       </c>
       <c r="E772" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F772" t="s">
         <v>133</v>
@@ -45011,7 +45117,7 @@
         <v>26</v>
       </c>
       <c r="E773" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F773" t="s">
         <v>133</v>
@@ -45037,7 +45143,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F774" t="s">
         <v>133</v>
@@ -45063,13 +45169,13 @@
         <v>2</v>
       </c>
       <c r="E775" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F775" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G775" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H775" t="s">
         <v>162</v>
@@ -45092,10 +45198,10 @@
         <v>3</v>
       </c>
       <c r="E776" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F776" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H776" t="s">
         <v>162</v>
@@ -45118,10 +45224,10 @@
         <v>4</v>
       </c>
       <c r="E777" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F777" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H777" t="s">
         <v>162</v>
@@ -45144,10 +45250,10 @@
         <v>96</v>
       </c>
       <c r="E778" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F778" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H778" t="s">
         <v>162</v>
@@ -45170,10 +45276,10 @@
         <v>98</v>
       </c>
       <c r="E779" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F779" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H779" t="s">
         <v>162</v>
@@ -45196,10 +45302,10 @@
         <v>99</v>
       </c>
       <c r="E780" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F780" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H780" t="s">
         <v>162</v>

--- a/data/hivdata_survey_datasets.xlsx
+++ b/data/hivdata_survey_datasets.xlsx
@@ -3863,7 +3863,7 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A52" sqref="$A52:$XFD129"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>

--- a/data/hivdata_survey_datasets.xlsx
+++ b/data/hivdata_survey_datasets.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11790" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11799" uniqueCount="908">
   <si>
     <t>Tables reflect analysis ready datasets. Non-analytical values (don't know, missing) are recoded as NA.</t>
   </si>
@@ -2426,6 +2426,9 @@
     <t>Oueme</t>
   </si>
   <si>
+    <t>Ouã©Mã©</t>
+  </si>
+  <si>
     <t>Mzuzu city</t>
   </si>
   <si>
@@ -2793,6 +2796,18 @@
   </si>
   <si>
     <t>Haut-Mbomou</t>
+  </si>
+  <si>
+    <t>Karusi</t>
+  </si>
+  <si>
+    <t>Karuzi</t>
+  </si>
+  <si>
+    <t>Bururi Rural</t>
+  </si>
+  <si>
+    <t>Bururi</t>
   </si>
 </sst>
 </file>
@@ -3954,12 +3969,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -4200,7 +4215,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" customFormat="1" spans="1:3">
       <c r="A20" t="s">
         <v>527</v>
       </c>
@@ -4211,29 +4226,29 @@
         <v>779</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>406</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" s="1" customFormat="1" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C21" t="s">
-        <v>781</v>
-      </c>
-      <c r="D21" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>406</v>
       </c>
       <c r="B22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C22" t="s">
+        <v>782</v>
+      </c>
+      <c r="D22" t="s">
         <v>783</v>
-      </c>
-      <c r="C22" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4241,10 +4256,10 @@
         <v>406</v>
       </c>
       <c r="B23" t="s">
+        <v>784</v>
+      </c>
+      <c r="C23" t="s">
         <v>785</v>
-      </c>
-      <c r="C23" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4252,35 +4267,35 @@
         <v>406</v>
       </c>
       <c r="B24" t="s">
+        <v>786</v>
+      </c>
+      <c r="C24" t="s">
         <v>787</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B25" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:4">
-      <c r="A25" t="s">
-        <v>520</v>
-      </c>
-      <c r="B25" t="s">
-        <v>780</v>
-      </c>
       <c r="C25" t="s">
-        <v>781</v>
-      </c>
-      <c r="D25" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:4">
       <c r="A26" t="s">
         <v>520</v>
       </c>
       <c r="B26" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>782</v>
+      </c>
+      <c r="D26" t="s">
         <v>783</v>
-      </c>
-      <c r="C26" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:3">
@@ -4288,10 +4303,10 @@
         <v>520</v>
       </c>
       <c r="B27" t="s">
+        <v>784</v>
+      </c>
+      <c r="C27" t="s">
         <v>785</v>
-      </c>
-      <c r="C27" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:3">
@@ -4299,21 +4314,21 @@
         <v>520</v>
       </c>
       <c r="B28" t="s">
+        <v>786</v>
+      </c>
+      <c r="C28" t="s">
         <v>787</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" customFormat="1" spans="1:3">
+      <c r="A29" t="s">
+        <v>520</v>
+      </c>
+      <c r="B29" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>789</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
@@ -4321,10 +4336,10 @@
         <v>534</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
@@ -4332,10 +4347,10 @@
         <v>534</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
@@ -4343,10 +4358,10 @@
         <v>534</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
@@ -4354,10 +4369,10 @@
         <v>534</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
@@ -4365,10 +4380,10 @@
         <v>534</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
@@ -4376,190 +4391,190 @@
         <v>534</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="36" s="2" customFormat="1"/>
-    <row r="37" s="1" customFormat="1" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
+    </row>
+    <row r="37" s="2" customFormat="1"/>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:3">
+      <c r="A41" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:3">
+      <c r="A43" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:3">
       <c r="A44" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:3">
+      <c r="A45" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:3">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:3">
+      <c r="A46" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>810</v>
+      <c r="C46" s="1" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>811</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>811</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>812</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="50" s="3" customFormat="1" spans="1:3">
       <c r="A50" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:3">
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
@@ -4570,7 +4585,7 @@
         <v>817</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
@@ -4581,7 +4596,7 @@
         <v>818</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
@@ -4589,10 +4604,10 @@
         <v>406</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
@@ -4600,10 +4615,10 @@
         <v>406</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
@@ -4611,10 +4626,10 @@
         <v>406</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
@@ -4622,10 +4637,10 @@
         <v>406</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
@@ -4633,10 +4648,10 @@
         <v>406</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
@@ -4644,10 +4659,10 @@
         <v>406</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
@@ -4655,10 +4670,10 @@
         <v>406</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
@@ -4666,10 +4681,10 @@
         <v>406</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
@@ -4677,10 +4692,10 @@
         <v>406</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
@@ -4688,10 +4703,10 @@
         <v>406</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
@@ -4699,10 +4714,10 @@
         <v>406</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
@@ -4710,10 +4725,10 @@
         <v>406</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
@@ -4721,10 +4736,10 @@
         <v>406</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
@@ -4732,33 +4747,33 @@
         <v>406</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C69" s="1" t="s">
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="70" s="1" customFormat="1"/>
-    <row r="71" s="1" customFormat="1" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
+      <c r="C70" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1"/>
     <row r="72" s="1" customFormat="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:3">
@@ -4769,7 +4784,7 @@
         <v>817</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:3">
@@ -4780,7 +4795,7 @@
         <v>818</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:3">
@@ -4788,10 +4803,10 @@
         <v>520</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:3">
@@ -4799,10 +4814,10 @@
         <v>520</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:3">
@@ -4810,10 +4825,10 @@
         <v>520</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:3">
@@ -4821,10 +4836,10 @@
         <v>520</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:3">
@@ -4832,10 +4847,10 @@
         <v>520</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:3">
@@ -4843,10 +4858,10 @@
         <v>520</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:3">
@@ -4854,10 +4869,10 @@
         <v>520</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:3">
@@ -4865,10 +4880,10 @@
         <v>520</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:3">
@@ -4876,10 +4891,10 @@
         <v>520</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:3">
@@ -4887,10 +4902,10 @@
         <v>520</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:3">
@@ -4898,10 +4913,10 @@
         <v>520</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:3">
@@ -4909,10 +4924,10 @@
         <v>520</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:3">
@@ -4920,10 +4935,10 @@
         <v>520</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:3">
@@ -4931,10 +4946,10 @@
         <v>520</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:3">
@@ -4942,36 +4957,36 @@
         <v>520</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C89" s="1" t="s">
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1" spans="1:4">
-      <c r="A91" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="1:3">
+      <c r="C90" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:3">
@@ -4979,10 +4994,10 @@
         <v>406</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:3">
@@ -4990,10 +5005,10 @@
         <v>406</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:3">
@@ -5004,7 +5019,7 @@
         <v>858</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:3">
@@ -5015,7 +5030,7 @@
         <v>859</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:3">
@@ -5026,7 +5041,7 @@
         <v>860</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:3">
@@ -5037,7 +5052,7 @@
         <v>861</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:3">
@@ -5048,7 +5063,7 @@
         <v>862</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" spans="1:3">
@@ -5059,7 +5074,7 @@
         <v>863</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" spans="1:3">
@@ -5070,7 +5085,7 @@
         <v>864</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:3">
@@ -5081,7 +5096,7 @@
         <v>865</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:3">
@@ -5092,7 +5107,7 @@
         <v>866</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" spans="1:3">
@@ -5103,7 +5118,7 @@
         <v>867</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" spans="1:3">
@@ -5114,7 +5129,7 @@
         <v>868</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" spans="1:3">
@@ -5125,7 +5140,7 @@
         <v>869</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" spans="1:3">
@@ -5136,7 +5151,7 @@
         <v>870</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" spans="1:3">
@@ -5147,30 +5162,30 @@
         <v>871</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1"/>
-    <row r="110" s="1" customFormat="1" spans="1:3">
-      <c r="A110" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="C110" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>872</v>
       </c>
-    </row>
+      <c r="C109" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1"/>
     <row r="111" s="1" customFormat="1" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" spans="1:3">
@@ -5178,10 +5193,10 @@
         <v>520</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" spans="1:3">
@@ -5189,10 +5204,10 @@
         <v>520</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" spans="1:3">
@@ -5200,10 +5215,10 @@
         <v>520</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" spans="1:3">
@@ -5214,7 +5229,7 @@
         <v>858</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" spans="1:3">
@@ -5222,10 +5237,10 @@
         <v>520</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" spans="1:3">
@@ -5233,10 +5248,10 @@
         <v>520</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>825</v>
+        <v>873</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" spans="1:3">
@@ -5247,7 +5262,7 @@
         <v>860</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" spans="1:3">
@@ -5258,7 +5273,7 @@
         <v>861</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" spans="1:3">
@@ -5269,7 +5284,7 @@
         <v>862</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" spans="1:3">
@@ -5280,7 +5295,7 @@
         <v>863</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" spans="1:3">
@@ -5291,7 +5306,7 @@
         <v>864</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" spans="1:3">
@@ -5302,7 +5317,7 @@
         <v>865</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:3">
@@ -5313,7 +5328,7 @@
         <v>866</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" spans="1:3">
@@ -5324,7 +5339,7 @@
         <v>867</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" spans="1:3">
@@ -5335,7 +5350,7 @@
         <v>868</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" spans="1:3">
@@ -5346,7 +5361,7 @@
         <v>869</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" spans="1:3">
@@ -5357,7 +5372,7 @@
         <v>870</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="1" spans="1:3">
@@ -5368,32 +5383,32 @@
         <v>871</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="131" s="1" customFormat="1" spans="1:4">
-      <c r="A131" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="1" spans="1:3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:4">
       <c r="A132" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="1" spans="1:3">
@@ -5404,7 +5419,7 @@
         <v>876</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" spans="1:3">
@@ -5415,7 +5430,7 @@
         <v>877</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" spans="1:3">
@@ -5426,7 +5441,7 @@
         <v>878</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="1" spans="1:3">
@@ -5437,7 +5452,7 @@
         <v>879</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="1" spans="1:3">
@@ -5448,18 +5463,18 @@
         <v>880</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="138" s="3" customFormat="1" spans="1:3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>882</v>
+      <c r="C138" s="1" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="139" s="3" customFormat="1" spans="1:3">
@@ -5467,10 +5482,10 @@
         <v>534</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="140" s="3" customFormat="1" spans="1:3">
@@ -5478,10 +5493,10 @@
         <v>534</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="141" s="3" customFormat="1" spans="1:3">
@@ -5492,7 +5507,7 @@
         <v>886</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="142" s="3" customFormat="1" spans="1:3">
@@ -5500,10 +5515,10 @@
         <v>534</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="143" s="3" customFormat="1" spans="1:3">
@@ -5511,10 +5526,10 @@
         <v>534</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="144" s="3" customFormat="1" spans="1:3">
@@ -5522,10 +5537,10 @@
         <v>534</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="145" s="3" customFormat="1" spans="1:3">
@@ -5536,7 +5551,7 @@
         <v>893</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="146" s="3" customFormat="1" spans="1:3">
@@ -5544,10 +5559,10 @@
         <v>534</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="147" s="3" customFormat="1" spans="1:3">
@@ -5555,10 +5570,10 @@
         <v>534</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="148" s="3" customFormat="1" spans="1:3">
@@ -5566,10 +5581,10 @@
         <v>534</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="149" s="3" customFormat="1" spans="1:3">
@@ -5577,14 +5592,47 @@
         <v>534</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="C149" s="3" t="s">
+    </row>
+    <row r="150" s="3" customFormat="1" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="5"/>
+      <c r="C150" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>377</v>
+      </c>
+      <c r="B152" t="s">
+        <v>904</v>
+      </c>
+      <c r="C152" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>377</v>
+      </c>
+      <c r="B153" t="s">
+        <v>906</v>
+      </c>
+      <c r="C153" t="s">
+        <v>907</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7059,9 +7107,9 @@
   <dimension ref="A1:F1044"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A350" sqref="A350"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>

--- a/data/hivdata_survey_datasets.xlsx
+++ b/data/hivdata_survey_datasets.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11799" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11808" uniqueCount="914">
   <si>
     <t>Tables reflect analysis ready datasets. Non-analytical values (don't know, missing) are recoded as NA.</t>
   </si>
@@ -2808,6 +2808,24 @@
   </si>
   <si>
     <t>Bururi</t>
+  </si>
+  <si>
+    <t>Hauts-Bassins</t>
+  </si>
+  <si>
+    <t>Hauts Bassins</t>
+  </si>
+  <si>
+    <t>Cascade</t>
+  </si>
+  <si>
+    <t>Cascades</t>
+  </si>
+  <si>
+    <t>Plateau-Central</t>
+  </si>
+  <si>
+    <t>Plateau Central</t>
   </si>
 </sst>
 </file>
@@ -3969,12 +3987,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="$A21:$XFD21"/>
+      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -5632,6 +5650,39 @@
       </c>
       <c r="C153" t="s">
         <v>907</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>381</v>
+      </c>
+      <c r="B155" t="s">
+        <v>908</v>
+      </c>
+      <c r="C155" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>381</v>
+      </c>
+      <c r="B156" t="s">
+        <v>910</v>
+      </c>
+      <c r="C156" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>381</v>
+      </c>
+      <c r="B157" t="s">
+        <v>912</v>
+      </c>
+      <c r="C157" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -7107,9 +7158,9 @@
   <dimension ref="A1:F1044"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
+      <selection pane="bottomLeft" activeCell="A353" sqref="A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>
